--- a/Results/EMA2.xlsx
+++ b/Results/EMA2.xlsx
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Tabelle3" sheetId="3" r:id="rId1"/>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">Tabelle3!$A$1:$D$122</definedName>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="146">
   <si>
     <t>timestamp</t>
   </si>
@@ -471,16 +470,26 @@
   </si>
   <si>
     <t>Frequency</t>
+  </si>
+  <si>
+    <t>Z Values</t>
+  </si>
+  <si>
+    <t>Y Values</t>
+  </si>
+  <si>
+    <t>X Values</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="165" formatCode="#,000%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,6 +509,22 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -542,10 +567,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -561,8 +588,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
@@ -778,11 +818,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2124526544"/>
-        <c:axId val="-2124682576"/>
+        <c:axId val="2113466480"/>
+        <c:axId val="2113476320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2124526544"/>
+        <c:axId val="2113466480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -881,7 +921,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2124682576"/>
+        <c:crossAx val="2113476320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -889,7 +929,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124682576"/>
+        <c:axId val="2113476320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -982,7 +1022,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2124526544"/>
+        <c:crossAx val="2113466480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -994,38 +1034,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1250,11 +1258,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2124617040"/>
-        <c:axId val="-2070399680"/>
+        <c:axId val="2113592928"/>
+        <c:axId val="2113598992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2124617040"/>
+        <c:axId val="2113592928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1353,7 +1361,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2070399680"/>
+        <c:crossAx val="2113598992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1361,7 +1369,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2070399680"/>
+        <c:axId val="2113598992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1454,7 +1462,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2124617040"/>
+        <c:crossAx val="2113592928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1466,38 +1474,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1722,11 +1698,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2097736336"/>
-        <c:axId val="-2097229008"/>
+        <c:axId val="2113632752"/>
+        <c:axId val="2113638816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2097736336"/>
+        <c:axId val="2113632752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1825,7 +1801,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2097229008"/>
+        <c:crossAx val="2113638816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1833,7 +1809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2097229008"/>
+        <c:axId val="2113638816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1926,7 +1902,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2097736336"/>
+        <c:crossAx val="2113632752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1938,38 +1914,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3640,16 +3584,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3670,16 +3614,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3700,16 +3644,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3726,6 +3670,102 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Textfeld 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6959600" y="11125200"/>
+          <a:ext cx="6159500" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="1" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Die Verteilungen entsprechen in allen Fällen eher einer Normalverteilung (annähernd Gaußsche Normalverteilungskurve). Dadurch, dass das</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="1" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Gerät </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ruhig auf dem Tisch lag, wäre unter optimalen Bedingungen konstant ein Wert sichtbar. Da aber durch äußere Einflüsse (wie beispielsweise Erschütterungen, Vibrationen, Schwingungen) der empfindliche Sensor immer minimal gestört wird, gibt es kleinere Abweichungen. Die Unterschiede zwischen den Werten sind aber marginal, sodass man sich in diesen Fällen auf den Mittelwert verlassen könnte.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4054,10 +4094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4389,6 +4429,9 @@
       <c r="D17" s="3">
         <v>9.9584912110000001</v>
       </c>
+      <c r="G17" s="2" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
@@ -4644,6 +4687,9 @@
       <c r="D30" s="3">
         <v>9.9304994200000003</v>
       </c>
+      <c r="G30" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
@@ -4898,6 +4944,9 @@
       <c r="D43" s="3">
         <v>9.9290025330000002</v>
       </c>
+      <c r="G43" s="2" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
@@ -4999,7 +5048,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>54</v>
       </c>
@@ -5019,7 +5068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>55</v>
       </c>
@@ -5039,7 +5088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>56</v>
       </c>
@@ -5059,7 +5108,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>57</v>
       </c>
@@ -5079,7 +5128,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>58</v>
       </c>
@@ -5099,7 +5148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>59</v>
       </c>
@@ -5119,7 +5168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>60</v>
       </c>
@@ -5139,7 +5188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>61</v>
       </c>
@@ -5153,7 +5202,7 @@
         <v>9.9315472410000005</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>62</v>
       </c>
@@ -5166,8 +5215,11 @@
       <c r="D57" s="3">
         <v>9.9595390320000003</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G57" s="13"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>63</v>
       </c>
@@ -5180,8 +5232,11 @@
       <c r="D58" s="3">
         <v>9.9584912110000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="9"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>64</v>
       </c>
@@ -5194,8 +5249,11 @@
       <c r="D59" s="3">
         <v>9.9427738950000002</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="9"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>65</v>
       </c>
@@ -5208,8 +5266,11 @@
       <c r="D60" s="3">
         <v>9.9447198490000002</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="9"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>66</v>
       </c>
@@ -5222,8 +5283,11 @@
       <c r="D61" s="3">
         <v>9.9439714049999992</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="9"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>67</v>
       </c>
@@ -5236,8 +5300,11 @@
       <c r="D62" s="3">
         <v>9.9306491090000009</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="9"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>68</v>
       </c>
@@ -5250,8 +5317,11 @@
       <c r="D63" s="3">
         <v>9.9207696530000007</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="9"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>69</v>
       </c>
@@ -5264,8 +5334,11 @@
       <c r="D64" s="3">
         <v>9.9352894589999998</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="9"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>70</v>
       </c>
@@ -5278,8 +5351,11 @@
       <c r="D65" s="3">
         <v>9.9331938169999994</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="9"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>71</v>
       </c>
@@ -5292,8 +5368,11 @@
       <c r="D66" s="3">
         <v>9.9423248290000004</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="9"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>72</v>
       </c>
@@ -5306,8 +5385,11 @@
       <c r="D67" s="3">
         <v>9.9120877079999996</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="9"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>73</v>
       </c>
@@ -5320,8 +5402,11 @@
       <c r="D68" s="3">
         <v>9.9487614440000005</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="9"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>74</v>
       </c>
@@ -5334,8 +5419,11 @@
       <c r="D69" s="3">
         <v>9.9448695370000006</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G69" s="11"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>75</v>
       </c>
@@ -5349,7 +5437,7 @@
         <v>9.9394807430000007</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>76</v>
       </c>
@@ -5363,7 +5451,7 @@
         <v>9.9242124940000007</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>77</v>
       </c>
@@ -5377,7 +5465,7 @@
         <v>9.9496595760000002</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>78</v>
       </c>
@@ -5391,7 +5479,7 @@
         <v>9.9447198490000002</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>79</v>
       </c>
@@ -5405,7 +5493,7 @@
         <v>9.9354391480000004</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>80</v>
       </c>
@@ -5419,7 +5507,7 @@
         <v>9.9373851010000003</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>81</v>
       </c>
@@ -5433,7 +5521,7 @@
         <v>9.9366366579999994</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>82</v>
       </c>
@@ -5447,7 +5535,7 @@
         <v>9.9438217160000004</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>83</v>
       </c>
@@ -5461,7 +5549,7 @@
         <v>9.9501086430000001</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>84</v>
       </c>
@@ -5475,7 +5563,7 @@
         <v>9.9448695370000006</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>85</v>
       </c>
@@ -6084,18 +6172,6 @@
   <tableParts count="1">
     <tablePart r:id="rId3"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Results/EMA2.xlsx
+++ b/Results/EMA2.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/Documents/xCodeProjects/EMA2/EMA2/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mduve/repository/EMA2/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16580"/>
+    <workbookView xWindow="860" yWindow="440" windowWidth="38320" windowHeight="21720"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle3" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">Tabelle3!$A$1:$D$122</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">Tabelle3!$A$4:$D$239</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>timestamp</t>
   </si>
@@ -65,366 +65,6 @@
   </si>
   <si>
     <t>Column4</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2054</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2154</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2255</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2355</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2455</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2555</t>
-  </si>
-  <si>
-    <t>2605</t>
-  </si>
-  <si>
-    <t>2655</t>
-  </si>
-  <si>
-    <t>2706</t>
-  </si>
-  <si>
-    <t>2756</t>
-  </si>
-  <si>
-    <t>2806</t>
-  </si>
-  <si>
-    <t>2856</t>
-  </si>
-  <si>
-    <t>2906</t>
-  </si>
-  <si>
-    <t>2956</t>
-  </si>
-  <si>
-    <t>3006</t>
-  </si>
-  <si>
-    <t>3056</t>
-  </si>
-  <si>
-    <t>3107</t>
-  </si>
-  <si>
-    <t>3157</t>
-  </si>
-  <si>
-    <t>3207</t>
-  </si>
-  <si>
-    <t>3257</t>
-  </si>
-  <si>
-    <t>3307</t>
-  </si>
-  <si>
-    <t>3357</t>
-  </si>
-  <si>
-    <t>3407</t>
-  </si>
-  <si>
-    <t>3457</t>
-  </si>
-  <si>
-    <t>3507</t>
-  </si>
-  <si>
-    <t>3557</t>
-  </si>
-  <si>
-    <t>3608</t>
-  </si>
-  <si>
-    <t>3658</t>
-  </si>
-  <si>
-    <t>3708</t>
-  </si>
-  <si>
-    <t>3758</t>
-  </si>
-  <si>
-    <t>3808</t>
-  </si>
-  <si>
-    <t>3858</t>
-  </si>
-  <si>
-    <t>3908</t>
-  </si>
-  <si>
-    <t>3958</t>
-  </si>
-  <si>
-    <t>4008</t>
-  </si>
-  <si>
-    <t>4059</t>
-  </si>
-  <si>
-    <t>4109</t>
-  </si>
-  <si>
-    <t>4159</t>
-  </si>
-  <si>
-    <t>4209</t>
-  </si>
-  <si>
-    <t>4259</t>
-  </si>
-  <si>
-    <t>4309</t>
-  </si>
-  <si>
-    <t>4359</t>
-  </si>
-  <si>
-    <t>4409</t>
-  </si>
-  <si>
-    <t>4459</t>
-  </si>
-  <si>
-    <t>4510</t>
-  </si>
-  <si>
-    <t>4560</t>
-  </si>
-  <si>
-    <t>4610</t>
-  </si>
-  <si>
-    <t>4660</t>
-  </si>
-  <si>
-    <t>4710</t>
-  </si>
-  <si>
-    <t>4760</t>
-  </si>
-  <si>
-    <t>4810</t>
-  </si>
-  <si>
-    <t>4860</t>
-  </si>
-  <si>
-    <t>4910</t>
-  </si>
-  <si>
-    <t>4961</t>
-  </si>
-  <si>
-    <t>5011</t>
-  </si>
-  <si>
-    <t>5061</t>
-  </si>
-  <si>
-    <t>5111</t>
-  </si>
-  <si>
-    <t>5161</t>
-  </si>
-  <si>
-    <t>5211</t>
-  </si>
-  <si>
-    <t>5261</t>
-  </si>
-  <si>
-    <t>5311</t>
-  </si>
-  <si>
-    <t>5362</t>
-  </si>
-  <si>
-    <t>5412</t>
-  </si>
-  <si>
-    <t>5462</t>
-  </si>
-  <si>
-    <t>5512</t>
-  </si>
-  <si>
-    <t>5562</t>
-  </si>
-  <si>
-    <t>5612</t>
-  </si>
-  <si>
-    <t>5662</t>
-  </si>
-  <si>
-    <t>5712</t>
-  </si>
-  <si>
-    <t>5762</t>
-  </si>
-  <si>
-    <t>5813</t>
-  </si>
-  <si>
-    <t>5863</t>
-  </si>
-  <si>
-    <t>5913</t>
-  </si>
-  <si>
-    <t>5963</t>
-  </si>
-  <si>
-    <t>6013</t>
-  </si>
-  <si>
-    <t>6063</t>
-  </si>
-  <si>
-    <t>6113</t>
-  </si>
-  <si>
-    <t>6163</t>
-  </si>
-  <si>
-    <t>6213</t>
-  </si>
-  <si>
-    <t>6264</t>
-  </si>
-  <si>
-    <t>6314</t>
-  </si>
-  <si>
-    <t>6364</t>
-  </si>
-  <si>
-    <t>6414</t>
-  </si>
-  <si>
-    <t>6464</t>
-  </si>
-  <si>
-    <t>6514</t>
-  </si>
-  <si>
-    <t>6564</t>
-  </si>
-  <si>
-    <t>6614</t>
-  </si>
-  <si>
-    <t>6664</t>
-  </si>
-  <si>
-    <t>6715</t>
-  </si>
-  <si>
-    <t>6765</t>
-  </si>
-  <si>
-    <t>6815</t>
-  </si>
-  <si>
-    <t>6865</t>
-  </si>
-  <si>
-    <t>6915</t>
-  </si>
-  <si>
-    <t>6965</t>
-  </si>
-  <si>
-    <t>7015</t>
-  </si>
-  <si>
-    <t>7065</t>
-  </si>
-  <si>
-    <t>7115</t>
-  </si>
-  <si>
-    <t>7166</t>
-  </si>
-  <si>
-    <t>7216</t>
-  </si>
-  <si>
-    <t>7266</t>
-  </si>
-  <si>
-    <t>7316</t>
-  </si>
-  <si>
-    <t>7366</t>
-  </si>
-  <si>
-    <t>7416</t>
-  </si>
-  <si>
-    <t>7466</t>
-  </si>
-  <si>
-    <t>7516</t>
-  </si>
-  <si>
-    <t>7567</t>
-  </si>
-  <si>
-    <t>7617</t>
-  </si>
-  <si>
-    <t>7667</t>
-  </si>
-  <si>
-    <t>7717</t>
-  </si>
-  <si>
-    <t>7767</t>
-  </si>
-  <si>
-    <t>7817</t>
-  </si>
-  <si>
-    <t>7867</t>
-  </si>
-  <si>
-    <t>7917</t>
-  </si>
-  <si>
-    <t>7967</t>
   </si>
   <si>
     <t>Min X</t>
@@ -480,16 +120,20 @@
   <si>
     <t>X Values</t>
   </si>
+  <si>
+    <t>Bereiche</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000000000000000"/>
     <numFmt numFmtId="165" formatCode="#,000%"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,6 +173,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -538,7 +189,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -561,7 +212,104 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -572,22 +320,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -596,14 +337,54 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -665,7 +446,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-DE"/>
+              <a:rPr lang="en-US"/>
               <a:t>Histogram X Values</a:t>
             </a:r>
           </a:p>
@@ -697,7 +478,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -711,9 +492,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Frequency</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -726,40 +504,37 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle3!$G$19:$G$29</c:f>
+              <c:f>Tabelle3!$H$22:$H$31</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0,113913116</c:v>
+                  <c:v>0,1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0,119616256</c:v>
+                  <c:v>0,105</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0,125319397</c:v>
+                  <c:v>0,11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0,131022537</c:v>
+                  <c:v>0,115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0,136725677</c:v>
+                  <c:v>0,12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0,142428818</c:v>
+                  <c:v>0,125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0,148131958</c:v>
+                  <c:v>0,13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0,153835098</c:v>
+                  <c:v>0,135</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0,159538238</c:v>
+                  <c:v>0,14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0,165241379</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>More</c:v>
                 </c:pt>
               </c:strCache>
@@ -767,42 +542,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle3!$H$19:$H$29</c:f>
+              <c:f>Tabelle3!$I$22:$I$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.0</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.0</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.0</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.0</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.0</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -818,11 +590,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2113466480"/>
-        <c:axId val="2113476320"/>
+        <c:axId val="-2111463856"/>
+        <c:axId val="-2115207440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2113466480"/>
+        <c:axId val="-2111463856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -848,7 +620,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Bin</a:t>
                 </a:r>
               </a:p>
@@ -880,7 +652,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -918,10 +690,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2113476320"/>
+        <c:crossAx val="-2115207440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -929,7 +701,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113476320"/>
+        <c:axId val="-2115207440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -955,7 +727,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Frequency</a:t>
                 </a:r>
               </a:p>
@@ -987,7 +759,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1019,10 +791,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2113466480"/>
+        <c:crossAx val="-2111463856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1060,7 +832,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1105,7 +877,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-DE"/>
+              <a:rPr lang="en-US"/>
               <a:t>Histogram Y Values</a:t>
             </a:r>
           </a:p>
@@ -1137,7 +909,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1151,9 +923,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Frequency</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1166,38 +935,38 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle3!$G$32:$G$42</c:f>
+              <c:f>Tabelle3!$H$35:$H$45</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0,05493576</c:v>
+                  <c:v>0,06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0,060264679</c:v>
+                  <c:v>0,064</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0,065593597</c:v>
+                  <c:v>0,068</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0,070922516</c:v>
+                  <c:v>0,072</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0,076251434</c:v>
+                  <c:v>0,076</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0,081580353</c:v>
+                  <c:v>0,08</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0,086909271</c:v>
+                  <c:v>0,084</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0,09223819</c:v>
+                  <c:v>0,088</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0,097567108</c:v>
+                  <c:v>0,092</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0,102896027</c:v>
+                  <c:v>0,096</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>More</c:v>
@@ -1207,42 +976,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle3!$H$32:$H$42</c:f>
+              <c:f>Tabelle3!$I$35:$I$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.0</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.0</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.0</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.0</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>3.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1258,11 +1027,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2113592928"/>
-        <c:axId val="2113598992"/>
+        <c:axId val="-2055496384"/>
+        <c:axId val="-2061427520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2113592928"/>
+        <c:axId val="-2055496384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1288,7 +1057,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Bin</a:t>
                 </a:r>
               </a:p>
@@ -1320,7 +1089,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1358,10 +1127,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2113598992"/>
+        <c:crossAx val="-2061427520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1369,7 +1138,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113598992"/>
+        <c:axId val="-2061427520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1395,7 +1164,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Frequency</a:t>
                 </a:r>
               </a:p>
@@ -1427,7 +1196,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1459,10 +1228,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2113592928"/>
+        <c:crossAx val="-2055496384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1500,7 +1269,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1545,7 +1314,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-DE"/>
+              <a:rPr lang="en-US"/>
               <a:t>Histogram Z Values</a:t>
             </a:r>
           </a:p>
@@ -1577,7 +1346,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1591,9 +1360,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Frequency</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1606,40 +1372,43 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle3!$G$45:$G$55</c:f>
+              <c:f>Tabelle3!$H$49:$H$60</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>9,912087708</c:v>
+                  <c:v>9,841</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9,918000412</c:v>
+                  <c:v>9,845</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9,923913117</c:v>
+                  <c:v>9,849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9,929825821</c:v>
+                  <c:v>9,853</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9,935738526</c:v>
+                  <c:v>9,857</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9,94165123</c:v>
+                  <c:v>9,861</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9,947563934</c:v>
+                  <c:v>9,865</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9,953476639</c:v>
+                  <c:v>9,869</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9,959389343</c:v>
+                  <c:v>9,873</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9,965302048</c:v>
+                  <c:v>9,877</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>9,881</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>More</c:v>
                 </c:pt>
               </c:strCache>
@@ -1647,42 +1416,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle3!$H$45:$H$55</c:f>
+              <c:f>Tabelle3!$I$49:$I$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.0</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>23.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17.0</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1698,11 +1470,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2113632752"/>
-        <c:axId val="2113638816"/>
+        <c:axId val="-2080574640"/>
+        <c:axId val="-2115061952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2113632752"/>
+        <c:axId val="-2080574640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1728,7 +1500,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Bin</a:t>
                 </a:r>
               </a:p>
@@ -1760,7 +1532,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1798,10 +1570,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2113638816"/>
+        <c:crossAx val="-2115061952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1809,7 +1581,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113638816"/>
+        <c:axId val="-2115061952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1835,7 +1607,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Frequency</a:t>
                 </a:r>
               </a:p>
@@ -1867,7 +1639,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1899,10 +1671,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2113632752"/>
+        <c:crossAx val="-2080574640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1940,7 +1712,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3584,106 +3356,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagramm 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Diagramm 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3692,8 +3374,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6959600" y="11125200"/>
-          <a:ext cx="6159500" cy="1333500"/>
+          <a:off x="10350500" y="571500"/>
+          <a:ext cx="4953000" cy="2870200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3761,11 +3443,211 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ruhig auf dem Tisch lag, wäre unter optimalen Bedingungen konstant ein Wert sichtbar. Da aber durch äußere Einflüsse (wie beispielsweise Erschütterungen, Vibrationen, Schwingungen) der empfindliche Sensor immer minimal gestört wird, gibt es kleinere Abweichungen. Die Unterschiede zwischen den Werten sind aber marginal, sodass man sich in diesen Fällen auf den Mittelwert verlassen könnte.</a:t>
+            <a:t>ruhig auf dem Tisch lag, wäre unter optimalen Bedingungen konstant ein Wert sichtbar. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Da aber durch äußere Einflüsse (wie beispielsweise Erschütterungen, Vibrationen, Schwingungen) der empfindliche Sensor immer minimal gestört wird, gibt es kleinere Abweichungen. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Die Unterschiede zwischen den Werten sind aber marginal, sodass man sich in diesen Fällen auf den Mittelwert verlassen könnte.</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5232400" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25400" y="76200"/>
+          <a:ext cx="5232400" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Alle</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Werte wurden ohne Vorzeichen betrachtet. iOS gibt uns die Daten in G zurück. Wir haben diese mit der Graviationskonstante 9.81 multipliziert.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3785,8 +3667,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="output_20171018_23_48_46__2" displayName="output_20171018_23_48_46__2" ref="A1:D122" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D122"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="output_20171018_23_48_46__2" displayName="output_20171018_23_48_46__2" ref="A4:D239" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A4:D239"/>
   <tableColumns count="4">
     <tableColumn id="1" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="3"/>
     <tableColumn id="2" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="2"/>
@@ -4094,10 +3976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I122"/>
+  <dimension ref="A4:O239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="K69" sqref="K69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4105,2067 +3987,4084 @@
     <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="19.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.5" customWidth="1"/>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3">
+        <f>MIN(B6:B239)</f>
+        <v>8.2328796386718806E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H2" s="3">
-        <f>MIN(B3:B122)</f>
-        <v>0.11391311599999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.142952728</v>
-      </c>
-      <c r="C3" s="3">
-        <v>8.9513855000000003E-2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>9.9492105100000003</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H3" s="3">
-        <f>MIN(C3:C122)</f>
-        <v>5.493576E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
-        <v>0.143401794</v>
-      </c>
-      <c r="C4" s="3">
-        <v>9.3405762000000003E-2</v>
-      </c>
-      <c r="D4" s="3">
-        <v>9.9352894589999998</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H4" s="3">
-        <f>MIN(D3:D122)</f>
-        <v>9.9120877079999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="H5" s="3">
+        <f>MIN(C6:C239)</f>
+        <v>5.0295410156249998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2006</v>
+      </c>
+      <c r="B6">
+        <v>0.109422454833984</v>
+      </c>
+      <c r="C6">
+        <v>8.4723815917968806E-2</v>
+      </c>
+      <c r="D6">
+        <v>9.8733183288574207</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3">
-        <v>0.123493195</v>
-      </c>
-      <c r="C5" s="3">
-        <v>6.5863036999999999E-2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>9.9177758790000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="H6" s="3">
+        <f>MIN(D6:D239)</f>
+        <v>9.8300582885742198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2032</v>
+      </c>
+      <c r="B7">
+        <v>0.12888198852539101</v>
+      </c>
+      <c r="C7">
+        <v>7.8287200927734404E-2</v>
+      </c>
+      <c r="D7">
+        <v>9.8653848266601596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2058</v>
+      </c>
+      <c r="B8">
+        <v>0.105231170654297</v>
+      </c>
+      <c r="C8">
+        <v>6.06239318847656E-2</v>
+      </c>
+      <c r="D8">
+        <v>9.8526612854003908</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3">
-        <v>0.14085708599999999</v>
-      </c>
-      <c r="C6" s="3">
-        <v>6.2270508000000002E-2</v>
-      </c>
-      <c r="D6" s="3">
-        <v>9.9423248290000004</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H6" s="3">
-        <f>MAX(B3:B122)</f>
-        <v>0.17094451899999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="H8" s="3">
+        <f>MAX(B6:B239)</f>
+        <v>0.14265335083007799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2083</v>
+      </c>
+      <c r="B9">
+        <v>0.109572143554688</v>
+      </c>
+      <c r="C9">
+        <v>9.0861053466796904E-2</v>
+      </c>
+      <c r="D9">
+        <v>9.8652351379394503</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.13067825299999999</v>
-      </c>
-      <c r="C7" s="3">
-        <v>7.8736266999999999E-2</v>
-      </c>
-      <c r="D7" s="3">
-        <v>9.9408279420000003</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H7" s="3">
-        <f>MAX(C3:C122)</f>
-        <v>0.108224945</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="H9" s="3">
+        <f>MAX(C6:C239)</f>
+        <v>0.105380859375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2109</v>
+      </c>
+      <c r="B10">
+        <v>0.117954711914063</v>
+      </c>
+      <c r="C10">
+        <v>7.8137512207031301E-2</v>
+      </c>
+      <c r="D10">
+        <v>9.8647860717773401</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3">
-        <v>0.124541016</v>
-      </c>
-      <c r="C8" s="3">
-        <v>7.8885955999999993E-2</v>
-      </c>
-      <c r="D8" s="3">
-        <v>9.9227156070000007</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H8" s="3">
-        <f>MAX(D3:D122)</f>
-        <v>9.9712147519999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="H10" s="3">
+        <f>MAX(D6:D239)</f>
+        <v>9.8872393798828107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2135</v>
+      </c>
+      <c r="B11">
+        <v>0.13711486816406299</v>
+      </c>
+      <c r="C11">
+        <v>7.8287200927734404E-2</v>
+      </c>
+      <c r="D11">
+        <v>9.8601457214355506</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2161</v>
+      </c>
+      <c r="B12">
+        <v>0.10972183227539101</v>
+      </c>
+      <c r="C12">
+        <v>5.95761108398438E-2</v>
+      </c>
+      <c r="D12">
+        <v>9.8584991455078104</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3">
-        <v>0.12798385600000001</v>
-      </c>
-      <c r="C9" s="3">
-        <v>7.1850585999999994E-2</v>
-      </c>
-      <c r="D9" s="3">
-        <v>9.9390316769999991</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="H12" s="3">
+        <f>AVERAGE(B6:B239)</f>
+        <v>0.11775128878079934</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2186</v>
+      </c>
+      <c r="B13">
+        <v>0.119301910400391</v>
+      </c>
+      <c r="C13">
+        <v>8.3077239990234406E-2</v>
+      </c>
+      <c r="D13">
+        <v>9.8403868103027392</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3">
-        <v>0.13247451800000001</v>
-      </c>
-      <c r="C10" s="3">
-        <v>7.8586578000000004E-2</v>
-      </c>
-      <c r="D10" s="3">
-        <v>9.9322956849999997</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H10" s="3">
-        <f>AVERAGE(B3:B122)</f>
-        <v>0.13875395966666673</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="H13" s="3">
+        <f>AVERAGE(C6:C239)</f>
+        <v>7.6883709247295665E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2212</v>
+      </c>
+      <c r="B14">
+        <v>0.13696517944335901</v>
+      </c>
+      <c r="C14">
+        <v>7.9933776855468694E-2</v>
+      </c>
+      <c r="D14">
+        <v>9.8610438537597709</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3">
-        <v>0.160915375</v>
-      </c>
-      <c r="C11" s="3">
-        <v>7.3347472999999996E-2</v>
-      </c>
-      <c r="D11" s="3">
-        <v>9.9477136230000003</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H11" s="3">
-        <f>AVERAGE(C3:C122)</f>
-        <v>7.6601955400000019E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="H14" s="3">
+        <f>AVERAGE(D6:D239)</f>
+        <v>9.8590652759258539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2238</v>
+      </c>
+      <c r="B15">
+        <v>0.121397552490234</v>
+      </c>
+      <c r="C15">
+        <v>8.1580352783203094E-2</v>
+      </c>
+      <c r="D15">
+        <v>9.8568525695800808</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2263</v>
+      </c>
+      <c r="B16">
+        <v>0.108075256347656</v>
+      </c>
+      <c r="C16">
+        <v>8.5023193359374999E-2</v>
+      </c>
+      <c r="D16">
+        <v>9.8525115966796903</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3">
-        <v>0.13457015999999999</v>
-      </c>
-      <c r="C12" s="3">
-        <v>9.3705139000000007E-2</v>
-      </c>
-      <c r="D12" s="3">
-        <v>9.9354391480000004</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H12" s="3">
-        <f>AVERAGE(D3:D122)</f>
-        <v>9.9389306373499959</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="H16" s="3">
+        <f>VAR(B6:B239)</f>
+        <v>1.1588019676063454E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2289</v>
+      </c>
+      <c r="B17">
+        <v>0.13651611328124999</v>
+      </c>
+      <c r="C17">
+        <v>7.2449340820312499E-2</v>
+      </c>
+      <c r="D17">
+        <v>9.8734680175781193</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3">
-        <v>0.150287476</v>
-      </c>
-      <c r="C13" s="3">
-        <v>6.4066771999999994E-2</v>
-      </c>
-      <c r="D13" s="3">
-        <v>9.9322956849999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="H17" s="3">
+        <f>VAR(C6:C239)</f>
+        <v>7.7074756565698803E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2315</v>
+      </c>
+      <c r="B18">
+        <v>9.5651092529296905E-2</v>
+      </c>
+      <c r="C18">
+        <v>6.7060546875000002E-2</v>
+      </c>
+      <c r="D18">
+        <v>9.8547569274902305</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="3">
-        <v>0.141904907</v>
-      </c>
-      <c r="C14" s="3">
-        <v>6.0923309000000002E-2</v>
-      </c>
-      <c r="D14" s="3">
-        <v>9.9312478639999995</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H14" s="3">
-        <f>VAR(B3:B122)</f>
-        <v>9.9158874876495781E-5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="H18" s="3">
+        <f>VAR(D6:D239)</f>
+        <v>1.0775512238935515E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2341</v>
+      </c>
+      <c r="B19">
+        <v>0.138761444091797</v>
+      </c>
+      <c r="C19">
+        <v>6.8258056640624995E-2</v>
+      </c>
+      <c r="D19">
+        <v>9.8538587951660208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2366</v>
+      </c>
+      <c r="B20">
+        <v>0.117805023193359</v>
+      </c>
+      <c r="C20">
+        <v>6.2719573974609394E-2</v>
+      </c>
+      <c r="D20">
+        <v>9.86134323120117</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="24"/>
+    </row>
+    <row r="21" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2392</v>
+      </c>
+      <c r="B21">
+        <v>0.131426696777344</v>
+      </c>
+      <c r="C21">
+        <v>7.0503387451171906E-2</v>
+      </c>
+      <c r="D21">
+        <v>9.8475718688964893</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="3">
-        <v>0.13501922599999999</v>
-      </c>
-      <c r="C15" s="3">
-        <v>7.5293426999999996E-2</v>
-      </c>
-      <c r="D15" s="3">
-        <v>9.9441210939999998</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H15" s="3">
-        <f>VAR(C3:C122)</f>
-        <v>8.6642239349412362E-5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="I21" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="19"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="13"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2418</v>
+      </c>
+      <c r="B22">
+        <v>0.12843292236328099</v>
+      </c>
+      <c r="C22">
+        <v>6.9904632568359396E-2</v>
+      </c>
+      <c r="D22">
+        <v>9.8692767333984399</v>
+      </c>
+      <c r="G22" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I22" s="4">
+        <v>11</v>
+      </c>
+      <c r="J22" s="19"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="13"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2444</v>
+      </c>
+      <c r="B23">
+        <v>0.120499420166016</v>
+      </c>
+      <c r="C23">
+        <v>8.6969146728515606E-2</v>
+      </c>
+      <c r="D23">
+        <v>9.8697257995605501</v>
+      </c>
+      <c r="G23" s="25">
+        <v>0.105</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.105</v>
+      </c>
+      <c r="I23" s="4">
+        <v>14</v>
+      </c>
+      <c r="J23" s="19"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="13"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2469</v>
+      </c>
+      <c r="B24">
+        <v>0.101938018798828</v>
+      </c>
+      <c r="C24">
+        <v>6.7060546875000002E-2</v>
+      </c>
+      <c r="D24">
+        <v>9.8586488342285197</v>
+      </c>
+      <c r="G24" s="25">
+        <v>0.11</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="I24" s="4">
+        <v>33</v>
+      </c>
+      <c r="J24" s="19"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="13"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2495</v>
+      </c>
+      <c r="B25">
+        <v>0.11855346679687501</v>
+      </c>
+      <c r="C25">
+        <v>6.4515838623046898E-2</v>
+      </c>
+      <c r="D25">
+        <v>9.8634388732910203</v>
+      </c>
+      <c r="G25" s="25">
+        <v>0.115</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.115</v>
+      </c>
+      <c r="I25" s="4">
+        <v>37</v>
+      </c>
+      <c r="J25" s="19"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="13"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2521</v>
+      </c>
+      <c r="B26">
+        <v>0.118703155517578</v>
+      </c>
+      <c r="C26">
+        <v>8.1580352783203094E-2</v>
+      </c>
+      <c r="D26">
+        <v>9.8734680175781193</v>
+      </c>
+      <c r="G26" s="25">
+        <v>0.12</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="I26" s="4">
+        <v>43</v>
+      </c>
+      <c r="J26" s="19"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="13"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2546</v>
+      </c>
+      <c r="B27">
+        <v>0.122894439697266</v>
+      </c>
+      <c r="C27">
+        <v>8.2927551269531302E-2</v>
+      </c>
+      <c r="D27">
+        <v>9.8718214416503898</v>
+      </c>
+      <c r="G27" s="25">
+        <v>0.125</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="I27" s="4">
+        <v>33</v>
+      </c>
+      <c r="J27" s="19"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="13"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2572</v>
+      </c>
+      <c r="B28">
+        <v>0.13786331176757799</v>
+      </c>
+      <c r="C28">
+        <v>8.4424438476562502E-2</v>
+      </c>
+      <c r="D28">
+        <v>9.8616426086425797</v>
+      </c>
+      <c r="G28" s="25">
+        <v>0.13</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="I28" s="4">
+        <v>30</v>
+      </c>
+      <c r="J28" s="19"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="13"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2598</v>
+      </c>
+      <c r="B29">
+        <v>0.13082794189453101</v>
+      </c>
+      <c r="C29">
+        <v>8.5771636962890599E-2</v>
+      </c>
+      <c r="D29">
+        <v>9.8549066162109398</v>
+      </c>
+      <c r="G29" s="25">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="I29" s="4">
         <v>21</v>
       </c>
-      <c r="B16" s="3">
-        <v>0.17094451899999999</v>
-      </c>
-      <c r="C16" s="3">
-        <v>7.6341248E-2</v>
-      </c>
-      <c r="D16" s="3">
-        <v>9.9384329220000005</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H16" s="3">
-        <f>VAR(D3:D122)</f>
-        <v>1.0474334765428177E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="J29" s="19"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="13"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2624</v>
+      </c>
+      <c r="B30">
+        <v>0.126486968994141</v>
+      </c>
+      <c r="C30">
+        <v>8.6669769287109399E-2</v>
+      </c>
+      <c r="D30">
+        <v>9.8477215576171897</v>
+      </c>
+      <c r="G30" s="25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I30" s="4">
+        <v>10</v>
+      </c>
+      <c r="J30" s="19"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="13"/>
+    </row>
+    <row r="31" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2649</v>
+      </c>
+      <c r="B31">
+        <v>0.122445373535156</v>
+      </c>
+      <c r="C31">
+        <v>7.8137512207031301E-2</v>
+      </c>
+      <c r="D31">
+        <v>9.8426321411132793</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="5">
+        <v>2</v>
+      </c>
+      <c r="J31" s="14"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="15"/>
+    </row>
+    <row r="32" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2675</v>
+      </c>
+      <c r="B32">
+        <v>0.102836151123047</v>
+      </c>
+      <c r="C32">
+        <v>7.3197784423828099E-2</v>
+      </c>
+      <c r="D32">
+        <v>9.8531103515624991</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2701</v>
+      </c>
+      <c r="B33">
+        <v>0.12229568481445301</v>
+      </c>
+      <c r="C33">
+        <v>5.0295410156249998E-2</v>
+      </c>
+      <c r="D33">
+        <v>9.8704742431640593</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="24"/>
+    </row>
+    <row r="34" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2726</v>
+      </c>
+      <c r="B34">
+        <v>0.12813354492187501</v>
+      </c>
+      <c r="C34">
+        <v>7.1551208496093796E-2</v>
+      </c>
+      <c r="D34">
+        <v>9.8418836975097701</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="3">
-        <v>0.15148498499999999</v>
-      </c>
-      <c r="C17" s="3">
-        <v>8.5023192999999997E-2</v>
-      </c>
-      <c r="D17" s="3">
-        <v>9.9584912110000001</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="J34" s="16"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="18"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2752</v>
+      </c>
+      <c r="B35">
+        <v>9.9692687988281306E-2</v>
+      </c>
+      <c r="C35">
+        <v>7.3946228027343797E-2</v>
+      </c>
+      <c r="D35">
+        <v>9.8522122192382806</v>
+      </c>
+      <c r="G35" s="16">
+        <v>0.06</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="I35" s="10">
+        <v>7</v>
+      </c>
+      <c r="J35" s="19"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="13"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2778</v>
+      </c>
+      <c r="B36">
+        <v>0.11960128784179699</v>
+      </c>
+      <c r="C36">
+        <v>8.1879730224609398E-2</v>
+      </c>
+      <c r="D36">
+        <v>9.8757133483886701</v>
+      </c>
+      <c r="G36" s="19">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="H36" s="4">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="I36" s="4">
+        <v>12</v>
+      </c>
+      <c r="J36" s="19"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="13"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2804</v>
+      </c>
+      <c r="B37">
+        <v>0.117805023193359</v>
+      </c>
+      <c r="C37">
+        <v>5.987548828125E-2</v>
+      </c>
+      <c r="D37">
+        <v>9.85161346435547</v>
+      </c>
+      <c r="G37" s="19">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H37" s="4">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="I37" s="4">
+        <v>19</v>
+      </c>
+      <c r="J37" s="19"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="13"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2829</v>
+      </c>
+      <c r="B38">
+        <v>0.101039886474609</v>
+      </c>
+      <c r="C38">
+        <v>7.7538757324218693E-2</v>
+      </c>
+      <c r="D38">
+        <v>9.8788568115234394</v>
+      </c>
+      <c r="G38" s="19">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H38" s="4">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="I38" s="4">
+        <v>30</v>
+      </c>
+      <c r="J38" s="19"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="13"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2855</v>
+      </c>
+      <c r="B39">
+        <v>0.114062805175781</v>
+      </c>
+      <c r="C39">
+        <v>6.7359924316406194E-2</v>
+      </c>
+      <c r="D39">
+        <v>9.8703245544433607</v>
+      </c>
+      <c r="G39" s="19">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="H39" s="4">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="I39" s="4">
+        <v>34</v>
+      </c>
+      <c r="J39" s="19"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="13"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2881</v>
+      </c>
+      <c r="B40">
+        <v>0.11990066528320301</v>
+      </c>
+      <c r="C40">
+        <v>6.9156188964843796E-2</v>
+      </c>
+      <c r="D40">
+        <v>9.8414346313476599</v>
+      </c>
+      <c r="G40" s="19">
+        <v>0.08</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="I40" s="4">
+        <v>45</v>
+      </c>
+      <c r="J40" s="19"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="13"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2907</v>
+      </c>
+      <c r="B41">
+        <v>0.10358459472656301</v>
+      </c>
+      <c r="C41">
+        <v>7.9185333251953094E-2</v>
+      </c>
+      <c r="D41">
+        <v>9.8529606628418005</v>
+      </c>
+      <c r="G41" s="19">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="H41" s="4">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="I41" s="4">
+        <v>34</v>
+      </c>
+      <c r="J41" s="19"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="13"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2932</v>
+      </c>
+      <c r="B42">
+        <v>0.117056579589844</v>
+      </c>
+      <c r="C42">
+        <v>7.4994049072265603E-2</v>
+      </c>
+      <c r="D42">
+        <v>9.8698754882812505</v>
+      </c>
+      <c r="G42" s="19">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="H42" s="4">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="I42" s="4">
+        <v>31</v>
+      </c>
+      <c r="J42" s="19"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="13"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2958</v>
+      </c>
+      <c r="B43">
+        <v>0.113314361572266</v>
+      </c>
+      <c r="C43">
+        <v>8.3077239990234406E-2</v>
+      </c>
+      <c r="D43">
+        <v>9.8625407409668</v>
+      </c>
+      <c r="G43" s="19">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="H43" s="4">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="I43" s="4">
+        <v>17</v>
+      </c>
+      <c r="J43" s="19"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="13"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2984</v>
+      </c>
+      <c r="B44">
+        <v>0.119152221679688</v>
+      </c>
+      <c r="C44">
+        <v>6.5863037109374994E-2</v>
+      </c>
+      <c r="D44">
+        <v>9.8761624145507803</v>
+      </c>
+      <c r="G44" s="19">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="H44" s="4">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="I44" s="4">
+        <v>3</v>
+      </c>
+      <c r="J44" s="19"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="13"/>
+    </row>
+    <row r="45" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>3009</v>
+      </c>
+      <c r="B45">
+        <v>0.13711486816406299</v>
+      </c>
+      <c r="C45">
+        <v>6.7359924316406194E-2</v>
+      </c>
+      <c r="D45">
+        <v>9.8584991455078104</v>
+      </c>
+      <c r="G45" s="29"/>
+      <c r="H45" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="5">
+        <v>2</v>
+      </c>
+      <c r="J45" s="14"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="15"/>
+    </row>
+    <row r="46" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3035</v>
+      </c>
+      <c r="B46">
+        <v>0.12124786376953101</v>
+      </c>
+      <c r="C46">
+        <v>7.5742492675781301E-2</v>
+      </c>
+      <c r="D46">
+        <v>9.8523619079589793</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3061</v>
+      </c>
+      <c r="B47">
+        <v>0.11750564575195301</v>
+      </c>
+      <c r="C47">
+        <v>8.1430664062500005E-2</v>
+      </c>
+      <c r="D47">
+        <v>9.8535594177246093</v>
+      </c>
+      <c r="G47" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="3">
-        <v>0.14085708599999999</v>
-      </c>
-      <c r="C18" s="3">
-        <v>6.8258056999999997E-2</v>
-      </c>
-      <c r="D18" s="3">
-        <v>9.9337925719999998</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0.136216736</v>
-      </c>
-      <c r="C19" s="3">
-        <v>8.0233154000000001E-2</v>
-      </c>
-      <c r="D19" s="3">
-        <v>9.9159796139999994</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0.11391311599999999</v>
-      </c>
-      <c r="H19" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0.15103591899999999</v>
-      </c>
-      <c r="C20" s="3">
-        <v>6.9006499999999998E-2</v>
-      </c>
-      <c r="D20" s="3">
-        <v>9.9275056460000002</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0.1196162563</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="24"/>
+    </row>
+    <row r="48" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>3087</v>
+      </c>
+      <c r="B48">
+        <v>0.109123077392578</v>
+      </c>
+      <c r="C48">
+        <v>7.6041870117187493E-2</v>
+      </c>
+      <c r="D48">
+        <v>9.8647860717773401</v>
+      </c>
+      <c r="G48" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="3">
-        <v>0.149239655</v>
-      </c>
-      <c r="C21" s="3">
-        <v>8.6669768999999994E-2</v>
-      </c>
-      <c r="D21" s="3">
-        <v>9.9411273189999996</v>
-      </c>
-      <c r="G21" s="5">
-        <v>0.12531939659999999</v>
-      </c>
-      <c r="H21" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="H48" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J48" s="16"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="18"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>3112</v>
+      </c>
+      <c r="B49">
+        <v>0.107476501464844</v>
+      </c>
+      <c r="C49">
+        <v>8.1280975341796902E-2</v>
+      </c>
+      <c r="D49">
+        <v>9.8682289123535192</v>
+      </c>
+      <c r="G49" s="19">
+        <v>9.8409999999999993</v>
+      </c>
+      <c r="H49" s="4">
+        <v>9.8409999999999993</v>
+      </c>
+      <c r="I49" s="4">
+        <v>10</v>
+      </c>
+      <c r="J49" s="19"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="13"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>3138</v>
+      </c>
+      <c r="B50">
+        <v>0.12738510131835901</v>
+      </c>
+      <c r="C50">
+        <v>7.9335021972656294E-2</v>
+      </c>
+      <c r="D50">
+        <v>9.8718214416503898</v>
+      </c>
+      <c r="G50" s="19">
+        <v>9.8450000000000006</v>
+      </c>
+      <c r="H50" s="4">
+        <v>9.8450000000000006</v>
+      </c>
+      <c r="I50" s="4">
+        <v>10</v>
+      </c>
+      <c r="J50" s="19"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="13"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>3164</v>
+      </c>
+      <c r="B51">
+        <v>0.117954711914063</v>
+      </c>
+      <c r="C51">
+        <v>8.3675994873046902E-2</v>
+      </c>
+      <c r="D51">
+        <v>9.8469731140136698</v>
+      </c>
+      <c r="G51" s="19">
+        <v>9.8490000000000002</v>
+      </c>
+      <c r="H51" s="4">
+        <v>9.8490000000000002</v>
+      </c>
+      <c r="I51" s="4">
+        <v>20</v>
+      </c>
+      <c r="J51" s="19"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="13"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>3190</v>
+      </c>
+      <c r="B52">
+        <v>0.12573852539062499</v>
+      </c>
+      <c r="C52">
+        <v>8.83163452148438E-2</v>
+      </c>
+      <c r="D52">
+        <v>9.8668817138671905</v>
+      </c>
+      <c r="G52" s="19">
+        <v>9.8529999999999998</v>
+      </c>
+      <c r="H52" s="4">
+        <v>9.8529999999999998</v>
+      </c>
+      <c r="I52" s="4">
+        <v>26</v>
+      </c>
+      <c r="J52" s="19"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="13"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>3215</v>
+      </c>
+      <c r="B53">
+        <v>0.1197509765625</v>
+      </c>
+      <c r="C53">
+        <v>8.5621948242187496E-2</v>
+      </c>
+      <c r="D53">
+        <v>9.8637382507324194</v>
+      </c>
+      <c r="G53" s="19">
+        <v>9.8569999999999993</v>
+      </c>
+      <c r="H53" s="4">
+        <v>9.8569999999999993</v>
+      </c>
+      <c r="I53" s="4">
         <v>27</v>
       </c>
-      <c r="B22" s="3">
-        <v>0.149239655</v>
-      </c>
-      <c r="C22" s="3">
-        <v>7.6041869999999998E-2</v>
-      </c>
-      <c r="D22" s="3">
-        <v>9.9504080199999994</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0.13102253689999999</v>
-      </c>
-      <c r="H22" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0.140557709</v>
-      </c>
-      <c r="C23" s="3">
-        <v>8.5322571E-2</v>
-      </c>
-      <c r="D23" s="3">
-        <v>9.9354391480000004</v>
-      </c>
-      <c r="G23" s="5">
-        <v>0.13672567720000001</v>
-      </c>
-      <c r="H23" s="5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="3">
-        <v>0.13337265000000001</v>
-      </c>
-      <c r="C24" s="3">
-        <v>8.3675995000000003E-2</v>
-      </c>
-      <c r="D24" s="3">
-        <v>9.9399298100000006</v>
-      </c>
-      <c r="G24" s="5">
-        <v>0.1424288175</v>
-      </c>
-      <c r="H24" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="3">
-        <v>0.121996307</v>
-      </c>
-      <c r="C25" s="3">
-        <v>7.0503387000000001E-2</v>
-      </c>
-      <c r="D25" s="3">
-        <v>9.9436720279999999</v>
-      </c>
-      <c r="G25" s="5">
-        <v>0.14813195779999999</v>
-      </c>
-      <c r="H25" s="5">
+      <c r="J53" s="19"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="13"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>3241</v>
+      </c>
+      <c r="B54">
+        <v>0.122744750976563</v>
+      </c>
+      <c r="C54">
+        <v>7.1700897216796899E-2</v>
+      </c>
+      <c r="D54">
+        <v>9.8712226867675792</v>
+      </c>
+      <c r="G54" s="19">
+        <v>9.8610000000000095</v>
+      </c>
+      <c r="H54" s="4">
+        <v>9.8610000000000095</v>
+      </c>
+      <c r="I54" s="4">
+        <v>39</v>
+      </c>
+      <c r="J54" s="19"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="13"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>3267</v>
+      </c>
+      <c r="B55">
+        <v>0.126486968994141</v>
+      </c>
+      <c r="C55">
+        <v>8.8016967773437496E-2</v>
+      </c>
+      <c r="D55">
+        <v>9.8517631530761705</v>
+      </c>
+      <c r="G55" s="19">
+        <v>9.8650000000000109</v>
+      </c>
+      <c r="H55" s="4">
+        <v>9.8650000000000109</v>
+      </c>
+      <c r="I55" s="4">
+        <v>40</v>
+      </c>
+      <c r="J55" s="19"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="13"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>3292</v>
+      </c>
+      <c r="B56">
+        <v>0.11346405029296899</v>
+      </c>
+      <c r="C56">
+        <v>7.7089691162109397E-2</v>
+      </c>
+      <c r="D56">
+        <v>9.8634388732910203</v>
+      </c>
+      <c r="G56" s="19">
+        <v>9.8690000000000104</v>
+      </c>
+      <c r="H56" s="4">
+        <v>9.8690000000000104</v>
+      </c>
+      <c r="I56" s="4">
+        <v>23</v>
+      </c>
+      <c r="J56" s="19"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="13"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>3318</v>
+      </c>
+      <c r="B57">
+        <v>0.125289459228516</v>
+      </c>
+      <c r="C57">
+        <v>7.8736267089843798E-2</v>
+      </c>
+      <c r="D57">
+        <v>9.8462246704101606</v>
+      </c>
+      <c r="G57" s="19">
+        <v>9.87300000000001</v>
+      </c>
+      <c r="H57" s="4">
+        <v>9.87300000000001</v>
+      </c>
+      <c r="I57" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="3">
-        <v>0.13202545199999999</v>
-      </c>
-      <c r="C26" s="3">
-        <v>7.9185332999999997E-2</v>
-      </c>
-      <c r="D26" s="3">
-        <v>9.9423248290000004</v>
-      </c>
-      <c r="G26" s="5">
-        <v>0.15383509809999998</v>
-      </c>
-      <c r="H26" s="5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="3">
-        <v>0.136216736</v>
-      </c>
-      <c r="C27" s="3">
-        <v>8.4574126999999999E-2</v>
-      </c>
-      <c r="D27" s="3">
-        <v>9.9369360350000004</v>
-      </c>
-      <c r="G27" s="5">
-        <v>0.15953823839999998</v>
-      </c>
-      <c r="H27" s="5">
+      <c r="J57" s="19"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="13"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>3344</v>
+      </c>
+      <c r="B58">
+        <v>0.110919342041016</v>
+      </c>
+      <c r="C58">
+        <v>7.1551208496093796E-2</v>
+      </c>
+      <c r="D58">
+        <v>9.8570022583007795</v>
+      </c>
+      <c r="G58" s="19">
+        <v>9.8770000000000095</v>
+      </c>
+      <c r="H58" s="4">
+        <v>9.8770000000000095</v>
+      </c>
+      <c r="I58" s="4">
+        <v>15</v>
+      </c>
+      <c r="J58" s="19"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="13"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>3370</v>
+      </c>
+      <c r="B59">
+        <v>0.10837463378906299</v>
+      </c>
+      <c r="C59">
+        <v>8.7717590332031206E-2</v>
+      </c>
+      <c r="D59">
+        <v>9.8709233093261695</v>
+      </c>
+      <c r="G59" s="19">
+        <v>9.8810000000000109</v>
+      </c>
+      <c r="H59" s="4">
+        <v>9.8810000000000109</v>
+      </c>
+      <c r="I59" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="3">
-        <v>0.13142669700000001</v>
-      </c>
-      <c r="C28" s="3">
-        <v>7.4694672000000004E-2</v>
-      </c>
-      <c r="D28" s="3">
-        <v>9.9478633120000008</v>
-      </c>
-      <c r="G28" s="5">
-        <v>0.1652413787</v>
-      </c>
-      <c r="H28" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="3">
-        <v>0.123942261</v>
-      </c>
-      <c r="C29" s="3">
-        <v>7.2898406999999998E-2</v>
-      </c>
-      <c r="D29" s="3">
-        <v>9.9342416379999996</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="H29" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="3">
-        <v>0.144449615</v>
-      </c>
-      <c r="C30" s="3">
-        <v>8.2777862999999993E-2</v>
-      </c>
-      <c r="D30" s="3">
-        <v>9.9304994200000003</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="3">
-        <v>0.141904907</v>
-      </c>
-      <c r="C31" s="3">
-        <v>6.8557434E-2</v>
-      </c>
-      <c r="D31" s="3">
-        <v>9.9424745179999992</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="3">
-        <v>0.135617981</v>
-      </c>
-      <c r="C32" s="3">
-        <v>7.1401519999999996E-2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>9.9281044010000006</v>
-      </c>
-      <c r="G32" s="5">
-        <v>5.493576E-2</v>
-      </c>
-      <c r="H32" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="3">
-        <v>0.12214599600000001</v>
-      </c>
-      <c r="C33" s="3">
-        <v>7.7089691000000002E-2</v>
-      </c>
-      <c r="D33" s="3">
-        <v>9.9360379030000008</v>
-      </c>
-      <c r="G33" s="5">
-        <v>6.0264678500000002E-2</v>
-      </c>
-      <c r="H33" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="3">
-        <v>0.14983840900000001</v>
-      </c>
-      <c r="C34" s="3">
-        <v>7.8137512000000006E-2</v>
-      </c>
-      <c r="D34" s="3">
-        <v>9.9456179809999998</v>
-      </c>
-      <c r="G34" s="5">
-        <v>6.5593597000000003E-2</v>
-      </c>
-      <c r="H34" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="3">
-        <v>0.15013778699999999</v>
-      </c>
-      <c r="C35" s="3">
-        <v>8.2628173999999999E-2</v>
-      </c>
-      <c r="D35" s="3">
-        <v>9.9364869690000006</v>
-      </c>
-      <c r="G35" s="5">
-        <v>7.0922515500000005E-2</v>
-      </c>
-      <c r="H35" s="5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="3">
-        <v>0.14699432400000001</v>
-      </c>
-      <c r="C36" s="3">
-        <v>7.0802765000000004E-2</v>
-      </c>
-      <c r="D36" s="3">
-        <v>9.9426242069999997</v>
-      </c>
-      <c r="G36" s="5">
-        <v>7.6251434000000007E-2</v>
-      </c>
-      <c r="H36" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="3">
-        <v>0.148790588</v>
-      </c>
-      <c r="C37" s="3">
-        <v>7.8885955999999993E-2</v>
-      </c>
-      <c r="D37" s="3">
-        <v>9.9258590699999996</v>
-      </c>
-      <c r="G37" s="5">
-        <v>8.1580352500000008E-2</v>
-      </c>
-      <c r="H37" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="3">
-        <v>0.14849121100000001</v>
-      </c>
-      <c r="C38" s="3">
-        <v>6.9455565999999996E-2</v>
-      </c>
-      <c r="D38" s="3">
-        <v>9.9357385249999997</v>
-      </c>
-      <c r="G38" s="5">
-        <v>8.6909270999999996E-2</v>
-      </c>
-      <c r="H38" s="5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="3">
-        <v>0.140108643</v>
-      </c>
-      <c r="C39" s="3">
-        <v>7.8586578000000004E-2</v>
-      </c>
-      <c r="D39" s="3">
-        <v>9.9275056460000002</v>
-      </c>
-      <c r="G39" s="5">
-        <v>9.2238189499999998E-2</v>
-      </c>
-      <c r="H39" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="3">
-        <v>0.14519805899999999</v>
-      </c>
-      <c r="C40" s="3">
-        <v>7.0802765000000004E-2</v>
-      </c>
-      <c r="D40" s="3">
-        <v>9.9486117549999999</v>
-      </c>
-      <c r="G40" s="5">
-        <v>9.7567108E-2</v>
-      </c>
-      <c r="H40" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="3">
-        <v>0.13726455700000001</v>
-      </c>
-      <c r="C41" s="3">
-        <v>7.4544982999999995E-2</v>
-      </c>
-      <c r="D41" s="3">
-        <v>9.9447198490000002</v>
-      </c>
-      <c r="G41" s="5">
-        <v>0.1028960265</v>
-      </c>
-      <c r="H41" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="3">
-        <v>0.15043716400000001</v>
-      </c>
-      <c r="C42" s="3">
-        <v>8.5023192999999997E-2</v>
-      </c>
-      <c r="D42" s="3">
-        <v>9.9316969299999993</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="H42" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="3">
-        <v>0.13292358400000001</v>
-      </c>
-      <c r="C43" s="3">
-        <v>7.5742492999999994E-2</v>
-      </c>
-      <c r="D43" s="3">
-        <v>9.9290025330000002</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="3">
-        <v>0.14025833100000001</v>
-      </c>
-      <c r="C44" s="3">
-        <v>8.1580352999999994E-2</v>
-      </c>
-      <c r="D44" s="3">
-        <v>9.9498092650000007</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="3">
-        <v>0.14355148300000001</v>
-      </c>
-      <c r="C45" s="3">
-        <v>7.5592804E-2</v>
-      </c>
-      <c r="D45" s="3">
-        <v>9.9328944400000001</v>
-      </c>
-      <c r="G45" s="5">
-        <v>9.9120877079999996</v>
-      </c>
-      <c r="H45" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="3">
-        <v>0.143401794</v>
-      </c>
-      <c r="C46" s="3">
-        <v>7.0503387000000001E-2</v>
-      </c>
-      <c r="D46" s="3">
-        <v>9.9242124940000007</v>
-      </c>
-      <c r="G46" s="5">
-        <v>9.9180004123999996</v>
-      </c>
-      <c r="H46" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="3">
-        <v>0.14040801999999999</v>
-      </c>
-      <c r="C47" s="3">
-        <v>8.2029419000000006E-2</v>
-      </c>
-      <c r="D47" s="3">
-        <v>9.955497437</v>
-      </c>
-      <c r="G47" s="5">
-        <v>9.9239131167999997</v>
-      </c>
-      <c r="H47" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="3">
-        <v>0.140108643</v>
-      </c>
-      <c r="C48" s="3">
-        <v>7.7239379999999996E-2</v>
-      </c>
-      <c r="D48" s="3">
-        <v>9.9442707820000003</v>
-      </c>
-      <c r="G48" s="5">
-        <v>9.9298258211999997</v>
-      </c>
-      <c r="H48" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="3">
-        <v>0.142503662</v>
-      </c>
-      <c r="C49" s="3">
-        <v>8.3526305999999995E-2</v>
-      </c>
-      <c r="D49" s="3">
-        <v>9.9442707820000003</v>
-      </c>
-      <c r="G49" s="5">
-        <v>9.9357385255999997</v>
-      </c>
-      <c r="H49" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="3">
-        <v>0.123942261</v>
-      </c>
-      <c r="C50" s="3">
-        <v>7.4544982999999995E-2</v>
-      </c>
-      <c r="D50" s="3">
-        <v>9.9465161129999995</v>
-      </c>
-      <c r="G50" s="5">
-        <v>9.9416512299999997</v>
-      </c>
-      <c r="H50" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="3">
-        <v>0.13531860400000001</v>
-      </c>
-      <c r="C51" s="3">
-        <v>7.4694672000000004E-2</v>
-      </c>
-      <c r="D51" s="3">
-        <v>9.9388819890000004</v>
-      </c>
-      <c r="G51" s="5">
-        <v>9.9475639343999998</v>
-      </c>
-      <c r="H51" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="3">
-        <v>0.15193405199999999</v>
-      </c>
-      <c r="C52" s="3">
-        <v>6.4815215999999995E-2</v>
-      </c>
-      <c r="D52" s="3">
-        <v>9.9469651789999993</v>
-      </c>
-      <c r="G52" s="5">
-        <v>9.9534766387999998</v>
-      </c>
-      <c r="H52" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="3">
-        <v>0.14040801999999999</v>
-      </c>
-      <c r="C53" s="3">
-        <v>6.5413971000000001E-2</v>
-      </c>
-      <c r="D53" s="3">
-        <v>9.9480129999999996</v>
-      </c>
-      <c r="G53" s="5">
-        <v>9.9593893431999998</v>
-      </c>
-      <c r="H53" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="3">
-        <v>0.136665802</v>
-      </c>
-      <c r="C54" s="3">
-        <v>9.1459808000000004E-2</v>
-      </c>
-      <c r="D54" s="3">
-        <v>9.9411273189999996</v>
-      </c>
-      <c r="G54" s="5">
-        <v>9.9653020475999998</v>
-      </c>
-      <c r="H54" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" s="3">
-        <v>0.13876144400000001</v>
-      </c>
-      <c r="C55" s="3">
-        <v>7.2898406999999998E-2</v>
-      </c>
-      <c r="D55" s="3">
-        <v>9.9391813659999997</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="H55" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" s="3">
-        <v>0.132773895</v>
-      </c>
-      <c r="C56" s="3">
-        <v>6.8407745000000006E-2</v>
-      </c>
-      <c r="D56" s="3">
-        <v>9.9315472410000005</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" s="3">
-        <v>0.13486953700000001</v>
-      </c>
-      <c r="C57" s="3">
-        <v>6.6312102999999997E-2</v>
-      </c>
-      <c r="D57" s="3">
-        <v>9.9595390320000003</v>
-      </c>
-      <c r="G57" s="13"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="3">
-        <v>0.12858261100000001</v>
-      </c>
-      <c r="C58" s="3">
-        <v>7.2000275000000002E-2</v>
-      </c>
-      <c r="D58" s="3">
-        <v>9.9584912110000001</v>
-      </c>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="9"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" s="3">
-        <v>0.15103591899999999</v>
-      </c>
-      <c r="C59" s="3">
-        <v>7.5443115000000005E-2</v>
-      </c>
-      <c r="D59" s="3">
-        <v>9.9427738950000002</v>
-      </c>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="9"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" s="3">
-        <v>0.14504837000000001</v>
-      </c>
-      <c r="C60" s="3">
-        <v>9.5950469999999996E-2</v>
-      </c>
-      <c r="D60" s="3">
-        <v>9.9447198490000002</v>
-      </c>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="9"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" s="3">
-        <v>0.15388000499999999</v>
-      </c>
-      <c r="C61" s="3">
-        <v>7.6790313999999998E-2</v>
-      </c>
-      <c r="D61" s="3">
-        <v>9.9439714049999992</v>
-      </c>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="9"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" s="3">
-        <v>0.14115646400000001</v>
-      </c>
-      <c r="C62" s="3">
-        <v>8.0831908999999993E-2</v>
-      </c>
-      <c r="D62" s="3">
-        <v>9.9306491090000009</v>
-      </c>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="9"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63" s="3">
-        <v>0.124241638</v>
-      </c>
-      <c r="C63" s="3">
-        <v>8.9663543999999998E-2</v>
-      </c>
-      <c r="D63" s="3">
-        <v>9.9207696530000007</v>
-      </c>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="9"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64" s="3">
-        <v>0.11391311599999999</v>
-      </c>
-      <c r="C64" s="3">
-        <v>7.2000275000000002E-2</v>
-      </c>
-      <c r="D64" s="3">
-        <v>9.9352894589999998</v>
-      </c>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="9"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="3">
-        <v>0.14429992699999999</v>
-      </c>
-      <c r="C65" s="3">
-        <v>8.8765411000000002E-2</v>
-      </c>
-      <c r="D65" s="3">
-        <v>9.9331938169999994</v>
-      </c>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="9"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66" s="3">
-        <v>0.15058685299999999</v>
-      </c>
-      <c r="C66" s="3">
-        <v>0.101339264</v>
-      </c>
-      <c r="D66" s="3">
-        <v>9.9423248290000004</v>
-      </c>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="9"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67" s="3">
-        <v>0.12618759199999999</v>
-      </c>
-      <c r="C67" s="3">
-        <v>8.9813232000000007E-2</v>
-      </c>
-      <c r="D67" s="3">
-        <v>9.9120877079999996</v>
-      </c>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="9"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68" s="3">
-        <v>0.13442047100000001</v>
-      </c>
-      <c r="C68" s="3">
-        <v>6.3917083999999999E-2</v>
-      </c>
-      <c r="D68" s="3">
-        <v>9.9487614440000005</v>
-      </c>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="9"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69" s="3">
-        <v>0.145796814</v>
-      </c>
-      <c r="C69" s="3">
-        <v>7.1251831000000002E-2</v>
-      </c>
-      <c r="D69" s="3">
-        <v>9.9448695370000006</v>
-      </c>
-      <c r="G69" s="11"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70" s="3">
-        <v>0.14519805899999999</v>
-      </c>
-      <c r="C70" s="3">
-        <v>7.8287201000000001E-2</v>
-      </c>
-      <c r="D70" s="3">
-        <v>9.9394807430000007</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71" s="3">
-        <v>0.15388000499999999</v>
-      </c>
-      <c r="C71" s="3">
-        <v>8.6071014000000001E-2</v>
-      </c>
-      <c r="D71" s="3">
-        <v>9.9242124940000007</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" s="3">
-        <v>0.12753479000000001</v>
-      </c>
-      <c r="C72" s="3">
-        <v>7.9933776999999998E-2</v>
-      </c>
-      <c r="D72" s="3">
-        <v>9.9496595760000002</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73" s="3">
-        <v>0.128881989</v>
-      </c>
-      <c r="C73" s="3">
-        <v>9.1160431E-2</v>
-      </c>
-      <c r="D73" s="3">
-        <v>9.9447198490000002</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74" s="3">
-        <v>0.128432922</v>
-      </c>
-      <c r="C74" s="3">
-        <v>8.7717589999999998E-2</v>
-      </c>
-      <c r="D74" s="3">
-        <v>9.9354391480000004</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75" s="3">
-        <v>0.13112731899999999</v>
-      </c>
-      <c r="C75" s="3">
-        <v>7.5592804E-2</v>
-      </c>
-      <c r="D75" s="3">
-        <v>9.9373851010000003</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76" s="3">
-        <v>0.122744751</v>
-      </c>
-      <c r="C76" s="3">
-        <v>0.108224945</v>
-      </c>
-      <c r="D76" s="3">
-        <v>9.9366366579999994</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B77" s="3">
-        <v>0.14864089999999999</v>
-      </c>
-      <c r="C77" s="3">
-        <v>7.4694672000000004E-2</v>
-      </c>
-      <c r="D77" s="3">
-        <v>9.9438217160000004</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78" s="3">
-        <v>0.13531860400000001</v>
-      </c>
-      <c r="C78" s="3">
-        <v>7.9933776999999998E-2</v>
-      </c>
-      <c r="D78" s="3">
-        <v>9.9501086430000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79" s="3">
-        <v>0.13831237800000001</v>
-      </c>
-      <c r="C79" s="3">
-        <v>7.4395294000000001E-2</v>
-      </c>
-      <c r="D79" s="3">
-        <v>9.9448695370000006</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80" s="3">
-        <v>0.15343093899999999</v>
-      </c>
-      <c r="C80" s="3">
-        <v>6.3767395000000004E-2</v>
-      </c>
-      <c r="D80" s="3">
-        <v>9.9278050229999995</v>
+      <c r="J59" s="19"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="13"/>
+    </row>
+    <row r="60" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>3395</v>
+      </c>
+      <c r="B60">
+        <v>0.111667785644531</v>
+      </c>
+      <c r="C60">
+        <v>8.3975372314453095E-2</v>
+      </c>
+      <c r="D60">
+        <v>9.8402371215820299</v>
+      </c>
+      <c r="G60" s="30"/>
+      <c r="H60" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I60" s="5">
+        <v>5</v>
+      </c>
+      <c r="J60" s="14"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="15"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>3421</v>
+      </c>
+      <c r="B61">
+        <v>0.12199630737304699</v>
+      </c>
+      <c r="C61">
+        <v>7.8736267089843798E-2</v>
+      </c>
+      <c r="D61">
+        <v>9.8631394958496106</v>
+      </c>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>3447</v>
+      </c>
+      <c r="B62">
+        <v>0.108973388671875</v>
+      </c>
+      <c r="C62">
+        <v>6.0773620605468801E-2</v>
+      </c>
+      <c r="D62">
+        <v>9.8475718688964893</v>
+      </c>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>3472</v>
+      </c>
+      <c r="B63">
+        <v>0.111817474365234</v>
+      </c>
+      <c r="C63">
+        <v>7.2149963378906307E-2</v>
+      </c>
+      <c r="D63">
+        <v>9.8814015197753893</v>
+      </c>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>3498</v>
+      </c>
+      <c r="B64">
+        <v>0.11585906982421899</v>
+      </c>
+      <c r="C64">
+        <v>8.3077239990234406E-2</v>
+      </c>
+      <c r="D64">
+        <v>9.8698754882812505</v>
+      </c>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>3524</v>
+      </c>
+      <c r="B65">
+        <v>0.10328521728515599</v>
+      </c>
+      <c r="C65">
+        <v>6.1072998046875E-2</v>
+      </c>
+      <c r="D65">
+        <v>9.8745158386230507</v>
+      </c>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>3550</v>
+      </c>
+      <c r="B66">
+        <v>0.13412109375</v>
+      </c>
+      <c r="C66">
+        <v>7.0952453613281299E-2</v>
+      </c>
+      <c r="D66">
+        <v>9.8541581726074199</v>
+      </c>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>3575</v>
+      </c>
+      <c r="B67">
+        <v>0.11585906982421899</v>
+      </c>
+      <c r="C67">
+        <v>7.2299652099609396E-2</v>
+      </c>
+      <c r="D67">
+        <v>9.8447277832031297</v>
+      </c>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>3601</v>
+      </c>
+      <c r="B68">
+        <v>0.120499420166016</v>
+      </c>
+      <c r="C68">
+        <v>7.6191558837890597E-2</v>
+      </c>
+      <c r="D68">
+        <v>9.8583494567871099</v>
+      </c>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>3627</v>
+      </c>
+      <c r="B69">
+        <v>0.128582611083984</v>
+      </c>
+      <c r="C69">
+        <v>7.7089691162109397E-2</v>
+      </c>
+      <c r="D69">
+        <v>9.8641873168945295</v>
+      </c>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>3653</v>
+      </c>
+      <c r="B70">
+        <v>0.12558883666992199</v>
+      </c>
+      <c r="C70">
+        <v>6.7958679199218705E-2</v>
+      </c>
+      <c r="D70">
+        <v>9.8550563049316402</v>
+      </c>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>3678</v>
+      </c>
+      <c r="B71">
+        <v>0.109572143554688</v>
+      </c>
+      <c r="C71">
+        <v>8.9513854980468793E-2</v>
+      </c>
+      <c r="D71">
+        <v>9.8445780944824204</v>
+      </c>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>3704</v>
+      </c>
+      <c r="B72">
+        <v>0.105680236816406</v>
+      </c>
+      <c r="C72">
+        <v>6.2120819091796897E-2</v>
+      </c>
+      <c r="D72">
+        <v>9.8537091064453097</v>
+      </c>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>3730</v>
+      </c>
+      <c r="B73">
+        <v>0.107177124023438</v>
+      </c>
+      <c r="C73">
+        <v>8.0831909179687494E-2</v>
+      </c>
+      <c r="D73">
+        <v>9.8593972778320307</v>
+      </c>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>3755</v>
+      </c>
+      <c r="B74">
+        <v>0.109422454833984</v>
+      </c>
+      <c r="C74">
+        <v>8.2777862548828102E-2</v>
+      </c>
+      <c r="D74">
+        <v>9.8644866943359393</v>
+      </c>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>3781</v>
+      </c>
+      <c r="B75">
+        <v>0.12693603515624999</v>
+      </c>
+      <c r="C75">
+        <v>8.5621948242187496E-2</v>
+      </c>
+      <c r="D75">
+        <v>9.8620916748046898</v>
+      </c>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>3807</v>
+      </c>
+      <c r="B76">
+        <v>0.10597961425781301</v>
+      </c>
+      <c r="C76">
+        <v>8.3526306152343799E-2</v>
+      </c>
+      <c r="D76">
+        <v>9.8710729980468805</v>
+      </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>3833</v>
+      </c>
+      <c r="B77">
+        <v>0.11720626831054699</v>
+      </c>
+      <c r="C77">
+        <v>8.9962921142578103E-2</v>
+      </c>
+      <c r="D77">
+        <v>9.8626904296875004</v>
+      </c>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>3858</v>
+      </c>
+      <c r="B78">
+        <v>0.110919342041016</v>
+      </c>
+      <c r="C78">
+        <v>6.4515838623046898E-2</v>
+      </c>
+      <c r="D78">
+        <v>9.8610438537597709</v>
+      </c>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>3884</v>
+      </c>
+      <c r="B79">
+        <v>0.12903167724609399</v>
+      </c>
+      <c r="C79">
+        <v>7.2898406982421907E-2</v>
+      </c>
+      <c r="D79">
+        <v>9.8567028808593804</v>
+      </c>
+      <c r="G79" s="8"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>3910</v>
+      </c>
+      <c r="B80">
+        <v>0.110470275878906</v>
+      </c>
+      <c r="C80">
+        <v>7.4245605468750003E-2</v>
+      </c>
+      <c r="D80">
+        <v>9.8526612854003908</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81" s="3">
-        <v>0.13846206699999999</v>
-      </c>
-      <c r="C81" s="3">
-        <v>7.2000275000000002E-2</v>
-      </c>
-      <c r="D81" s="3">
-        <v>9.9525036619999998</v>
+      <c r="A81">
+        <v>3936</v>
+      </c>
+      <c r="B81">
+        <v>0.103883972167969</v>
+      </c>
+      <c r="C81">
+        <v>8.2478485107421895E-2</v>
+      </c>
+      <c r="D81">
+        <v>9.8501165771484391</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82" s="3">
-        <v>0.14175521899999999</v>
-      </c>
-      <c r="C82" s="3">
-        <v>8.8316345000000004E-2</v>
-      </c>
-      <c r="D82" s="3">
-        <v>9.9206199650000002</v>
+      <c r="A82">
+        <v>3961</v>
+      </c>
+      <c r="B82">
+        <v>0.100291442871094</v>
+      </c>
+      <c r="C82">
+        <v>8.83163452148438E-2</v>
+      </c>
+      <c r="D82">
+        <v>9.8576010131835901</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83" s="3">
-        <v>0.134719849</v>
-      </c>
-      <c r="C83" s="3">
-        <v>8.2478485000000004E-2</v>
-      </c>
-      <c r="D83" s="3">
-        <v>9.9360379030000008</v>
+      <c r="A83">
+        <v>3987</v>
+      </c>
+      <c r="B83">
+        <v>0.123942260742188</v>
+      </c>
+      <c r="C83">
+        <v>5.94264221191406E-2</v>
+      </c>
+      <c r="D83">
+        <v>9.8456259155273393</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84" s="3">
-        <v>0.13486953700000001</v>
-      </c>
-      <c r="C84" s="3">
-        <v>7.1850585999999994E-2</v>
-      </c>
-      <c r="D84" s="3">
-        <v>9.9450192259999994</v>
+      <c r="A84">
+        <v>4013</v>
+      </c>
+      <c r="B84">
+        <v>0.120798797607422</v>
+      </c>
+      <c r="C84">
+        <v>6.7509613037109395E-2</v>
+      </c>
+      <c r="D84">
+        <v>9.8584991455078104</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85" s="3">
-        <v>0.139958954</v>
-      </c>
-      <c r="C85" s="3">
-        <v>7.9035645000000002E-2</v>
-      </c>
-      <c r="D85" s="3">
-        <v>9.9388819890000004</v>
+      <c r="A85">
+        <v>4038</v>
+      </c>
+      <c r="B85">
+        <v>0.120349731445313</v>
+      </c>
+      <c r="C85">
+        <v>8.3526306152343799E-2</v>
+      </c>
+      <c r="D85">
+        <v>9.8510147094726594</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86" s="3">
-        <v>0.12558883700000001</v>
-      </c>
-      <c r="C86" s="3">
-        <v>7.5742492999999994E-2</v>
-      </c>
-      <c r="D86" s="3">
-        <v>9.9203205870000009</v>
+      <c r="A86">
+        <v>4064</v>
+      </c>
+      <c r="B86">
+        <v>0.131875762939453</v>
+      </c>
+      <c r="C86">
+        <v>7.9933776855468694E-2</v>
+      </c>
+      <c r="D86">
+        <v>9.8577507019042994</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87" s="3">
-        <v>0.15088623000000001</v>
-      </c>
-      <c r="C87" s="3">
-        <v>7.5742492999999994E-2</v>
-      </c>
-      <c r="D87" s="3">
-        <v>9.9355888369999992</v>
+      <c r="A87">
+        <v>4090</v>
+      </c>
+      <c r="B87">
+        <v>0.110919342041016</v>
+      </c>
+      <c r="C87">
+        <v>8.5771636962890599E-2</v>
+      </c>
+      <c r="D87">
+        <v>9.8598463439941408</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88" s="3">
-        <v>0.130827942</v>
-      </c>
-      <c r="C88" s="3">
-        <v>6.7060546999999998E-2</v>
-      </c>
-      <c r="D88" s="3">
-        <v>9.9469651789999993</v>
+      <c r="A88">
+        <v>4116</v>
+      </c>
+      <c r="B88">
+        <v>0.111967163085938</v>
+      </c>
+      <c r="C88">
+        <v>6.7808990478515602E-2</v>
+      </c>
+      <c r="D88">
+        <v>9.8559544372558605</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B89" s="3">
-        <v>0.12528945899999999</v>
-      </c>
-      <c r="C89" s="3">
-        <v>8.1280975000000005E-2</v>
-      </c>
-      <c r="D89" s="3">
-        <v>9.9445701599999996</v>
+      <c r="A89">
+        <v>4141</v>
+      </c>
+      <c r="B89">
+        <v>0.116607513427734</v>
+      </c>
+      <c r="C89">
+        <v>6.6012725830078098E-2</v>
+      </c>
+      <c r="D89">
+        <v>9.8507153320312497</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B90" s="3">
-        <v>0.139509888</v>
-      </c>
-      <c r="C90" s="3">
-        <v>5.493576E-2</v>
-      </c>
-      <c r="D90" s="3">
-        <v>9.9532521060000008</v>
+      <c r="A90">
+        <v>4167</v>
+      </c>
+      <c r="B90">
+        <v>9.7147979736328105E-2</v>
+      </c>
+      <c r="C90">
+        <v>8.5921325683593799E-2</v>
+      </c>
+      <c r="D90">
+        <v>9.8614929199218793</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B91" s="3">
-        <v>0.13007949799999999</v>
-      </c>
-      <c r="C91" s="3">
-        <v>8.3526305999999995E-2</v>
-      </c>
-      <c r="D91" s="3">
-        <v>9.9523539729999992</v>
+      <c r="A91">
+        <v>4193</v>
+      </c>
+      <c r="B91">
+        <v>0.123193817138672</v>
+      </c>
+      <c r="C91">
+        <v>8.2179107666015605E-2</v>
+      </c>
+      <c r="D91">
+        <v>9.8592475891113303</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B92" s="3">
-        <v>0.13741424599999999</v>
-      </c>
-      <c r="C92" s="3">
-        <v>8.6370392000000004E-2</v>
-      </c>
-      <c r="D92" s="3">
-        <v>9.9342416379999996</v>
+      <c r="A92">
+        <v>4219</v>
+      </c>
+      <c r="B92">
+        <v>0.113314361572266</v>
+      </c>
+      <c r="C92">
+        <v>7.8137512207031301E-2</v>
+      </c>
+      <c r="D92">
+        <v>9.8475718688964893</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B93" s="3">
-        <v>0.15582595799999999</v>
-      </c>
-      <c r="C93" s="3">
-        <v>9.1010742000000006E-2</v>
-      </c>
-      <c r="D93" s="3">
-        <v>9.9349900820000006</v>
+      <c r="A93">
+        <v>4244</v>
+      </c>
+      <c r="B93">
+        <v>0.114661560058594</v>
+      </c>
+      <c r="C93">
+        <v>7.4694671630859397E-2</v>
+      </c>
+      <c r="D93">
+        <v>9.8558047485351601</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B94" s="3">
-        <v>0.13427078200000001</v>
-      </c>
-      <c r="C94" s="3">
-        <v>7.1850585999999994E-2</v>
-      </c>
-      <c r="D94" s="3">
-        <v>9.9342416379999996</v>
+      <c r="A94">
+        <v>4270</v>
+      </c>
+      <c r="B94">
+        <v>0.117056579589844</v>
+      </c>
+      <c r="C94">
+        <v>0.105380859375</v>
+      </c>
+      <c r="D94">
+        <v>9.8436799621582001</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B95" s="3">
-        <v>0.120649109</v>
-      </c>
-      <c r="C95" s="3">
-        <v>7.0204009999999997E-2</v>
-      </c>
-      <c r="D95" s="3">
-        <v>9.9433726500000006</v>
+      <c r="A95">
+        <v>4296</v>
+      </c>
+      <c r="B95">
+        <v>0.12888198852539101</v>
+      </c>
+      <c r="C95">
+        <v>7.7987823486328101E-2</v>
+      </c>
+      <c r="D95">
+        <v>9.8629898071289102</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B96" s="3">
-        <v>0.153131561</v>
-      </c>
-      <c r="C96" s="3">
-        <v>7.8137512000000006E-2</v>
-      </c>
-      <c r="D96" s="3">
-        <v>9.9423248290000004</v>
+      <c r="A96">
+        <v>4321</v>
+      </c>
+      <c r="B96">
+        <v>0.12499008178710901</v>
+      </c>
+      <c r="C96">
+        <v>7.0802764892578099E-2</v>
+      </c>
+      <c r="D96">
+        <v>9.8483203125000003</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B97" s="3">
-        <v>0.141006775</v>
-      </c>
-      <c r="C97" s="3">
-        <v>8.1730042000000003E-2</v>
-      </c>
-      <c r="D97" s="3">
-        <v>9.9429235840000008</v>
+      <c r="A97">
+        <v>4347</v>
+      </c>
+      <c r="B97">
+        <v>0.11855346679687501</v>
+      </c>
+      <c r="C97">
+        <v>7.3497161865234403E-2</v>
+      </c>
+      <c r="D97">
+        <v>9.8604450988769496</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B98" s="3">
-        <v>0.12858261100000001</v>
-      </c>
-      <c r="C98" s="3">
-        <v>6.4066771999999994E-2</v>
-      </c>
-      <c r="D98" s="3">
-        <v>9.9272062680000008</v>
+      <c r="A98">
+        <v>4373</v>
+      </c>
+      <c r="B98">
+        <v>0.131277008056641</v>
+      </c>
+      <c r="C98">
+        <v>8.4873504638671896E-2</v>
+      </c>
+      <c r="D98">
+        <v>9.8670314025878891</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B99" s="3">
-        <v>0.139958954</v>
-      </c>
-      <c r="C99" s="3">
-        <v>6.4066771999999994E-2</v>
-      </c>
-      <c r="D99" s="3">
-        <v>9.9336428829999992</v>
+      <c r="A99">
+        <v>4399</v>
+      </c>
+      <c r="B99">
+        <v>0.108224945068359</v>
+      </c>
+      <c r="C99">
+        <v>9.2657318115234394E-2</v>
+      </c>
+      <c r="D99">
+        <v>9.8608941650390598</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B100" s="3">
-        <v>0.16271163899999999</v>
-      </c>
-      <c r="C100" s="3">
-        <v>7.6341248E-2</v>
-      </c>
-      <c r="D100" s="3">
-        <v>9.9517552190000007</v>
+      <c r="A100">
+        <v>4424</v>
+      </c>
+      <c r="B100">
+        <v>0.107626190185547</v>
+      </c>
+      <c r="C100">
+        <v>6.9156188964843796E-2</v>
+      </c>
+      <c r="D100">
+        <v>9.83769241333008</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B101" s="3">
-        <v>0.14325210599999999</v>
-      </c>
-      <c r="C101" s="3">
-        <v>8.2029419000000006E-2</v>
-      </c>
-      <c r="D101" s="3">
-        <v>9.926457825</v>
+      <c r="A101">
+        <v>4450</v>
+      </c>
+      <c r="B101">
+        <v>0.13457015991210899</v>
+      </c>
+      <c r="C101">
+        <v>7.6041870117187493E-2</v>
+      </c>
+      <c r="D101">
+        <v>9.8499668884277405</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B102" s="3">
-        <v>0.14804214500000001</v>
-      </c>
-      <c r="C102" s="3">
-        <v>5.7779846000000003E-2</v>
-      </c>
-      <c r="D102" s="3">
-        <v>9.9541502380000004</v>
+      <c r="A102">
+        <v>4476</v>
+      </c>
+      <c r="B102">
+        <v>0.115410003662109</v>
+      </c>
+      <c r="C102">
+        <v>7.40959167480469E-2</v>
+      </c>
+      <c r="D102">
+        <v>9.8607444763183594</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B103" s="3">
-        <v>0.13382171600000001</v>
-      </c>
-      <c r="C103" s="3">
-        <v>8.1730042000000003E-2</v>
-      </c>
-      <c r="D103" s="3">
-        <v>9.9502583310000006</v>
+      <c r="A103">
+        <v>4502</v>
+      </c>
+      <c r="B103">
+        <v>0.12813354492187501</v>
+      </c>
+      <c r="C103">
+        <v>8.5621948242187496E-2</v>
+      </c>
+      <c r="D103">
+        <v>9.8683786010742196</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B104" s="3">
-        <v>0.13262420699999999</v>
-      </c>
-      <c r="C104" s="3">
-        <v>7.4844359999999999E-2</v>
-      </c>
-      <c r="D104" s="3">
-        <v>9.9364869690000006</v>
+      <c r="A104">
+        <v>4527</v>
+      </c>
+      <c r="B104">
+        <v>0.13157638549804701</v>
+      </c>
+      <c r="C104">
+        <v>6.8407745361328098E-2</v>
+      </c>
+      <c r="D104">
+        <v>9.85041595458984</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B105" s="3">
-        <v>0.13681549100000001</v>
-      </c>
-      <c r="C105" s="3">
-        <v>7.1850585999999994E-2</v>
-      </c>
-      <c r="D105" s="3">
-        <v>9.9420254519999993</v>
+      <c r="A105">
+        <v>4553</v>
+      </c>
+      <c r="B105">
+        <v>0.11481124877929701</v>
+      </c>
+      <c r="C105">
+        <v>7.0503387451171906E-2</v>
+      </c>
+      <c r="D105">
+        <v>9.8583494567871099</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B106" s="3">
-        <v>0.133672028</v>
-      </c>
-      <c r="C106" s="3">
-        <v>8.6819458000000002E-2</v>
-      </c>
-      <c r="D106" s="3">
-        <v>9.9182249450000004</v>
+      <c r="A106">
+        <v>4579</v>
+      </c>
+      <c r="B106">
+        <v>0.120499420166016</v>
+      </c>
+      <c r="C106">
+        <v>7.8287200927734404E-2</v>
+      </c>
+      <c r="D106">
+        <v>9.8631394958496106</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B107" s="3">
-        <v>0.140108643</v>
-      </c>
-      <c r="C107" s="3">
-        <v>7.7089691000000002E-2</v>
-      </c>
-      <c r="D107" s="3">
-        <v>9.9240628050000002</v>
+      <c r="A107">
+        <v>4604</v>
+      </c>
+      <c r="B107">
+        <v>0.11885284423828101</v>
+      </c>
+      <c r="C107">
+        <v>7.6041870117187493E-2</v>
+      </c>
+      <c r="D107">
+        <v>9.8332017517089891</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B108" s="3">
-        <v>0.148191833</v>
-      </c>
-      <c r="C108" s="3">
-        <v>6.3617705999999996E-2</v>
-      </c>
-      <c r="D108" s="3">
-        <v>9.9469651789999993</v>
+      <c r="A108">
+        <v>4630</v>
+      </c>
+      <c r="B108">
+        <v>0.12888198852539101</v>
+      </c>
+      <c r="C108">
+        <v>8.4424438476562502E-2</v>
+      </c>
+      <c r="D108">
+        <v>9.8619419860839805</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B109" s="3">
-        <v>0.13262420699999999</v>
-      </c>
-      <c r="C109" s="3">
-        <v>6.8856812000000003E-2</v>
-      </c>
-      <c r="D109" s="3">
-        <v>9.9523539729999992</v>
+      <c r="A109">
+        <v>4656</v>
+      </c>
+      <c r="B109">
+        <v>0.12558883666992199</v>
+      </c>
+      <c r="C109">
+        <v>9.05616760253906E-2</v>
+      </c>
+      <c r="D109">
+        <v>9.8561041259765592</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B110" s="3">
-        <v>0.12573852499999999</v>
-      </c>
-      <c r="C110" s="3">
-        <v>6.9305878000000001E-2</v>
-      </c>
-      <c r="D110" s="3">
-        <v>9.9465161129999995</v>
+      <c r="A110">
+        <v>4682</v>
+      </c>
+      <c r="B110">
+        <v>9.4603271484375001E-2</v>
+      </c>
+      <c r="C110">
+        <v>8.6071014404296903E-2</v>
+      </c>
+      <c r="D110">
+        <v>9.8647860717773401</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B111" s="3">
-        <v>0.148341522</v>
-      </c>
-      <c r="C111" s="3">
-        <v>6.8407745000000006E-2</v>
-      </c>
-      <c r="D111" s="3">
-        <v>9.9255596920000002</v>
+      <c r="A111">
+        <v>4707</v>
+      </c>
+      <c r="B111">
+        <v>0.113913116455078</v>
+      </c>
+      <c r="C111">
+        <v>8.2478485107421895E-2</v>
+      </c>
+      <c r="D111">
+        <v>9.86852828979492</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B112" s="3">
-        <v>0.13457015999999999</v>
-      </c>
-      <c r="C112" s="3">
-        <v>7.1551208000000005E-2</v>
-      </c>
-      <c r="D112" s="3">
-        <v>9.9330441280000006</v>
+      <c r="A112">
+        <v>4733</v>
+      </c>
+      <c r="B112">
+        <v>9.2208251953125001E-2</v>
+      </c>
+      <c r="C112">
+        <v>9.0861053466796904E-2</v>
+      </c>
+      <c r="D112">
+        <v>9.8602954101562492</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B113" s="3">
-        <v>0.12678634599999999</v>
-      </c>
-      <c r="C113" s="3">
-        <v>6.6162415000000002E-2</v>
-      </c>
-      <c r="D113" s="3">
-        <v>9.938283234</v>
+      <c r="A113">
+        <v>4759</v>
+      </c>
+      <c r="B113">
+        <v>0.11106903076171901</v>
+      </c>
+      <c r="C113">
+        <v>8.1131286621093798E-2</v>
+      </c>
+      <c r="D113">
+        <v>9.8641873168945295</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B114" s="3">
-        <v>0.12289443999999999</v>
-      </c>
-      <c r="C114" s="3">
-        <v>6.9605255000000005E-2</v>
-      </c>
-      <c r="D114" s="3">
-        <v>9.9237634280000009</v>
+      <c r="A114">
+        <v>4784</v>
+      </c>
+      <c r="B114">
+        <v>0.123193817138672</v>
+      </c>
+      <c r="C114">
+        <v>8.0682220458984405E-2</v>
+      </c>
+      <c r="D114">
+        <v>9.8525115966796903</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B115" s="3">
-        <v>0.14669494599999999</v>
-      </c>
-      <c r="C115" s="3">
-        <v>6.9455565999999996E-2</v>
-      </c>
-      <c r="D115" s="3">
-        <v>9.9366366579999994</v>
+      <c r="A115">
+        <v>4810</v>
+      </c>
+      <c r="B115">
+        <v>0.1197509765625</v>
+      </c>
+      <c r="C115">
+        <v>5.8677978515625E-2</v>
+      </c>
+      <c r="D115">
+        <v>9.8490687561035202</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B116" s="3">
-        <v>0.13786331199999999</v>
-      </c>
-      <c r="C116" s="3">
-        <v>7.2149962999999998E-2</v>
-      </c>
-      <c r="D116" s="3">
-        <v>9.9430732729999995</v>
+      <c r="A116">
+        <v>4836</v>
+      </c>
+      <c r="B116">
+        <v>0.10597961425781301</v>
+      </c>
+      <c r="C116">
+        <v>6.06239318847656E-2</v>
+      </c>
+      <c r="D116">
+        <v>9.8462246704101606</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B117" s="3">
-        <v>0.14504837000000001</v>
-      </c>
-      <c r="C117" s="3">
-        <v>6.2569885000000006E-2</v>
-      </c>
-      <c r="D117" s="3">
-        <v>9.9369360350000004</v>
+      <c r="A117">
+        <v>4862</v>
+      </c>
+      <c r="B117">
+        <v>0.141455841064453</v>
+      </c>
+      <c r="C117">
+        <v>8.6520080566406296E-2</v>
+      </c>
+      <c r="D117">
+        <v>9.8605947875976607</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B118" s="3">
-        <v>0.12484039299999999</v>
-      </c>
-      <c r="C118" s="3">
-        <v>7.2449341E-2</v>
-      </c>
-      <c r="D118" s="3">
-        <v>9.9501086430000001</v>
+      <c r="A118">
+        <v>4887</v>
+      </c>
+      <c r="B118">
+        <v>0.11615844726562501</v>
+      </c>
+      <c r="C118">
+        <v>6.7359924316406194E-2</v>
+      </c>
+      <c r="D118">
+        <v>9.8770605468750006</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B119" s="3">
-        <v>0.130229187</v>
-      </c>
-      <c r="C119" s="3">
-        <v>7.8287201000000001E-2</v>
-      </c>
-      <c r="D119" s="3">
-        <v>9.9712147519999998</v>
+      <c r="A119">
+        <v>4913</v>
+      </c>
+      <c r="B119">
+        <v>0.12229568481445301</v>
+      </c>
+      <c r="C119">
+        <v>8.8615722656250007E-2</v>
+      </c>
+      <c r="D119">
+        <v>9.8728692626953105</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B120" s="3">
-        <v>0.14160553000000001</v>
-      </c>
-      <c r="C120" s="3">
-        <v>0.101339264</v>
-      </c>
-      <c r="D120" s="3">
-        <v>9.9504080199999994</v>
+      <c r="A120">
+        <v>4939</v>
+      </c>
+      <c r="B120">
+        <v>0.106578369140625</v>
+      </c>
+      <c r="C120">
+        <v>8.2328796386718806E-2</v>
+      </c>
+      <c r="D120">
+        <v>9.8561041259765592</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B121" s="3">
-        <v>0.14504837000000001</v>
-      </c>
-      <c r="C121" s="3">
-        <v>7.6341248E-2</v>
-      </c>
-      <c r="D121" s="3">
-        <v>9.9294515990000001</v>
+      <c r="A121">
+        <v>4965</v>
+      </c>
+      <c r="B121">
+        <v>0.10463241577148399</v>
+      </c>
+      <c r="C121">
+        <v>7.3048095703124996E-2</v>
+      </c>
+      <c r="D121">
+        <v>9.8457756042480504</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B122" s="3">
-        <v>0.136665802</v>
-      </c>
-      <c r="C122" s="3">
-        <v>6.4366149999999997E-2</v>
-      </c>
-      <c r="D122" s="3">
-        <v>9.9287031559999992</v>
+      <c r="A122">
+        <v>4990</v>
+      </c>
+      <c r="B122">
+        <v>9.8944244384765595E-2</v>
+      </c>
+      <c r="C122">
+        <v>7.0054321289062499E-2</v>
+      </c>
+      <c r="D122">
+        <v>9.85041595458984</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>5016</v>
+      </c>
+      <c r="B123">
+        <v>0.11855346679687501</v>
+      </c>
+      <c r="C123">
+        <v>8.5023193359374999E-2</v>
+      </c>
+      <c r="D123">
+        <v>9.8397880554199197</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>5042</v>
+      </c>
+      <c r="B124">
+        <v>0.12199630737304699</v>
+      </c>
+      <c r="C124">
+        <v>7.6790313720703093E-2</v>
+      </c>
+      <c r="D124">
+        <v>9.8586488342285197</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>5068</v>
+      </c>
+      <c r="B125">
+        <v>0.118403778076172</v>
+      </c>
+      <c r="C125">
+        <v>7.6790313720703093E-2</v>
+      </c>
+      <c r="D125">
+        <v>9.8619419860839805</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>5093</v>
+      </c>
+      <c r="B126">
+        <v>0.13501922607421901</v>
+      </c>
+      <c r="C126">
+        <v>7.8137512207031301E-2</v>
+      </c>
+      <c r="D126">
+        <v>9.8465240478515597</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>5119</v>
+      </c>
+      <c r="B127">
+        <v>0.108224945068359</v>
+      </c>
+      <c r="C127">
+        <v>7.9634399414062501E-2</v>
+      </c>
+      <c r="D127">
+        <v>9.8635885620117207</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>5145</v>
+      </c>
+      <c r="B128">
+        <v>0.110619964599609</v>
+      </c>
+      <c r="C128">
+        <v>6.8407745361328098E-2</v>
+      </c>
+      <c r="D128">
+        <v>9.8478712463378901</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>5170</v>
+      </c>
+      <c r="B129">
+        <v>0.106728057861328</v>
+      </c>
+      <c r="C129">
+        <v>7.9185333251953094E-2</v>
+      </c>
+      <c r="D129">
+        <v>9.8556550598144508</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>5196</v>
+      </c>
+      <c r="B130">
+        <v>0.12903167724609399</v>
+      </c>
+      <c r="C130">
+        <v>7.8885955810546901E-2</v>
+      </c>
+      <c r="D130">
+        <v>9.8646363830566397</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>5222</v>
+      </c>
+      <c r="B131">
+        <v>0.12618759155273401</v>
+      </c>
+      <c r="C131">
+        <v>7.2299652099609396E-2</v>
+      </c>
+      <c r="D131">
+        <v>9.8599960327148395</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>5248</v>
+      </c>
+      <c r="B132">
+        <v>0.13322296142578099</v>
+      </c>
+      <c r="C132">
+        <v>8.2478485107421895E-2</v>
+      </c>
+      <c r="D132">
+        <v>9.8668817138671905</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>5273</v>
+      </c>
+      <c r="B133">
+        <v>0.116607513427734</v>
+      </c>
+      <c r="C133">
+        <v>7.5892181396484404E-2</v>
+      </c>
+      <c r="D133">
+        <v>9.8571519470214906</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>5299</v>
+      </c>
+      <c r="B134">
+        <v>0.117954711914063</v>
+      </c>
+      <c r="C134">
+        <v>6.0923309326171897E-2</v>
+      </c>
+      <c r="D134">
+        <v>9.8567028808593804</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>5325</v>
+      </c>
+      <c r="B135">
+        <v>0.119002532958984</v>
+      </c>
+      <c r="C135">
+        <v>6.0025177001953103E-2</v>
+      </c>
+      <c r="D135">
+        <v>9.8730189514160198</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>5351</v>
+      </c>
+      <c r="B136">
+        <v>0.106578369140625</v>
+      </c>
+      <c r="C136">
+        <v>8.9214477539062503E-2</v>
+      </c>
+      <c r="D136">
+        <v>9.8763121032714807</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>5376</v>
+      </c>
+      <c r="B137">
+        <v>0.106728057861328</v>
+      </c>
+      <c r="C137">
+        <v>8.9813232421875E-2</v>
+      </c>
+      <c r="D137">
+        <v>9.8659835815429702</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>5402</v>
+      </c>
+      <c r="B138">
+        <v>0.12978012084960899</v>
+      </c>
+      <c r="C138">
+        <v>8.4873504638671896E-2</v>
+      </c>
+      <c r="D138">
+        <v>9.8463743591308592</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>5428</v>
+      </c>
+      <c r="B139">
+        <v>0.111218719482422</v>
+      </c>
+      <c r="C139">
+        <v>7.9784088134765604E-2</v>
+      </c>
+      <c r="D139">
+        <v>9.8680792236328099</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>5453</v>
+      </c>
+      <c r="B140">
+        <v>0.11855346679687501</v>
+      </c>
+      <c r="C140">
+        <v>8.4723815917968806E-2</v>
+      </c>
+      <c r="D140">
+        <v>9.8581997680664095</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>5479</v>
+      </c>
+      <c r="B141">
+        <v>0.14265335083007799</v>
+      </c>
+      <c r="C141">
+        <v>7.7389068603515604E-2</v>
+      </c>
+      <c r="D141">
+        <v>9.8688276672363298</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>5505</v>
+      </c>
+      <c r="B142">
+        <v>0.10837463378906299</v>
+      </c>
+      <c r="C142">
+        <v>8.5472259521484406E-2</v>
+      </c>
+      <c r="D142">
+        <v>9.8573016357421892</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>5531</v>
+      </c>
+      <c r="B143">
+        <v>9.8944244384765595E-2</v>
+      </c>
+      <c r="C143">
+        <v>8.90647888183594E-2</v>
+      </c>
+      <c r="D143">
+        <v>9.8513140869140603</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>5556</v>
+      </c>
+      <c r="B144">
+        <v>0.1293310546875</v>
+      </c>
+      <c r="C144">
+        <v>8.6370391845703096E-2</v>
+      </c>
+      <c r="D144">
+        <v>9.8531103515624991</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>5582</v>
+      </c>
+      <c r="B145">
+        <v>0.11885284423828101</v>
+      </c>
+      <c r="C145">
+        <v>6.8108367919921906E-2</v>
+      </c>
+      <c r="D145">
+        <v>9.8769108581543001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>5608</v>
+      </c>
+      <c r="B146">
+        <v>0.105231170654297</v>
+      </c>
+      <c r="C146">
+        <v>7.4395294189453107E-2</v>
+      </c>
+      <c r="D146">
+        <v>9.8833474731445303</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>5634</v>
+      </c>
+      <c r="B147">
+        <v>0.13367202758789101</v>
+      </c>
+      <c r="C147">
+        <v>6.1971130371093801E-2</v>
+      </c>
+      <c r="D147">
+        <v>9.8650854492187499</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>5659</v>
+      </c>
+      <c r="B148">
+        <v>0.116008758544922</v>
+      </c>
+      <c r="C148">
+        <v>9.1010742187499993E-2</v>
+      </c>
+      <c r="D148">
+        <v>9.8550563049316402</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>5685</v>
+      </c>
+      <c r="B149">
+        <v>0.108524322509766</v>
+      </c>
+      <c r="C149">
+        <v>6.8258056640624995E-2</v>
+      </c>
+      <c r="D149">
+        <v>9.8611935424804695</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>5711</v>
+      </c>
+      <c r="B150">
+        <v>0.11720626831054699</v>
+      </c>
+      <c r="C150">
+        <v>8.3226928710937495E-2</v>
+      </c>
+      <c r="D150">
+        <v>9.8565531921386693</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>5736</v>
+      </c>
+      <c r="B151">
+        <v>0.12334350585937499</v>
+      </c>
+      <c r="C151">
+        <v>8.0981597900390598E-2</v>
+      </c>
+      <c r="D151">
+        <v>9.8538587951660208</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>5762</v>
+      </c>
+      <c r="B152">
+        <v>0.11750564575195301</v>
+      </c>
+      <c r="C152">
+        <v>7.9035644531250004E-2</v>
+      </c>
+      <c r="D152">
+        <v>9.86553451538086</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>5788</v>
+      </c>
+      <c r="B153">
+        <v>0.1101708984375</v>
+      </c>
+      <c r="C153">
+        <v>8.5621948242187496E-2</v>
+      </c>
+      <c r="D153">
+        <v>9.8511643981933599</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>5814</v>
+      </c>
+      <c r="B154">
+        <v>0.113314361572266</v>
+      </c>
+      <c r="C154">
+        <v>7.2898406982421907E-2</v>
+      </c>
+      <c r="D154">
+        <v>9.8643370056152406</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>5839</v>
+      </c>
+      <c r="B155">
+        <v>0.130079498291016</v>
+      </c>
+      <c r="C155">
+        <v>7.9634399414062501E-2</v>
+      </c>
+      <c r="D155">
+        <v>9.8581997680664095</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>5865</v>
+      </c>
+      <c r="B156">
+        <v>0.13427078247070301</v>
+      </c>
+      <c r="C156">
+        <v>7.7089691162109397E-2</v>
+      </c>
+      <c r="D156">
+        <v>9.8556550598144508</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>5891</v>
+      </c>
+      <c r="B157">
+        <v>0.114062805175781</v>
+      </c>
+      <c r="C157">
+        <v>6.7210235595703105E-2</v>
+      </c>
+      <c r="D157">
+        <v>9.8562538146972702</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>5916</v>
+      </c>
+      <c r="B158">
+        <v>0.12094848632812499</v>
+      </c>
+      <c r="C158">
+        <v>6.7509613037109395E-2</v>
+      </c>
+      <c r="D158">
+        <v>9.8378421020507805</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>5942</v>
+      </c>
+      <c r="B159">
+        <v>0.11735595703125</v>
+      </c>
+      <c r="C159">
+        <v>9.0861053466796904E-2</v>
+      </c>
+      <c r="D159">
+        <v>9.8617922973632801</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>5968</v>
+      </c>
+      <c r="B160">
+        <v>9.2208251953125001E-2</v>
+      </c>
+      <c r="C160">
+        <v>7.2299652099609396E-2</v>
+      </c>
+      <c r="D160">
+        <v>9.8607444763183594</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>5994</v>
+      </c>
+      <c r="B161">
+        <v>0.12633728027343799</v>
+      </c>
+      <c r="C161">
+        <v>7.0653076171874996E-2</v>
+      </c>
+      <c r="D161">
+        <v>9.8677798461914108</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>6019</v>
+      </c>
+      <c r="B162">
+        <v>0.11750564575195301</v>
+      </c>
+      <c r="C162">
+        <v>8.6520080566406296E-2</v>
+      </c>
+      <c r="D162">
+        <v>9.8595469665527293</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>6045</v>
+      </c>
+      <c r="B163">
+        <v>0.11211685180664099</v>
+      </c>
+      <c r="C163">
+        <v>6.8856811523437506E-2</v>
+      </c>
+      <c r="D163">
+        <v>9.8610438537597709</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>6071</v>
+      </c>
+      <c r="B164">
+        <v>0.127983856201172</v>
+      </c>
+      <c r="C164">
+        <v>7.2599029541015603E-2</v>
+      </c>
+      <c r="D164">
+        <v>9.8766114807128904</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>6097</v>
+      </c>
+      <c r="B165">
+        <v>0.13591735839843699</v>
+      </c>
+      <c r="C165">
+        <v>7.48443603515625E-2</v>
+      </c>
+      <c r="D165">
+        <v>9.8570022583007795</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>6122</v>
+      </c>
+      <c r="B166">
+        <v>0.111218719482422</v>
+      </c>
+      <c r="C166">
+        <v>7.0054321289062499E-2</v>
+      </c>
+      <c r="D166">
+        <v>9.84742218017578</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>6148</v>
+      </c>
+      <c r="B167">
+        <v>8.2328796386718806E-2</v>
+      </c>
+      <c r="C167">
+        <v>8.6520080566406296E-2</v>
+      </c>
+      <c r="D167">
+        <v>9.8471228027343791</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>6174</v>
+      </c>
+      <c r="B168">
+        <v>0.106877746582031</v>
+      </c>
+      <c r="C168">
+        <v>8.3526306152343799E-2</v>
+      </c>
+      <c r="D168">
+        <v>9.8733183288574207</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>6199</v>
+      </c>
+      <c r="B169">
+        <v>0.137563934326172</v>
+      </c>
+      <c r="C169">
+        <v>7.5892181396484404E-2</v>
+      </c>
+      <c r="D169">
+        <v>9.8647860717773401</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>6225</v>
+      </c>
+      <c r="B170">
+        <v>0.116308135986328</v>
+      </c>
+      <c r="C170">
+        <v>7.7987823486328101E-2</v>
+      </c>
+      <c r="D170">
+        <v>9.8549066162109398</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>6251</v>
+      </c>
+      <c r="B171">
+        <v>0.113314361572266</v>
+      </c>
+      <c r="C171">
+        <v>7.4694671630859397E-2</v>
+      </c>
+      <c r="D171">
+        <v>9.85161346435547</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>6277</v>
+      </c>
+      <c r="B172">
+        <v>0.132025451660156</v>
+      </c>
+      <c r="C172">
+        <v>9.3256072998046904E-2</v>
+      </c>
+      <c r="D172">
+        <v>9.8490687561035202</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>6302</v>
+      </c>
+      <c r="B173">
+        <v>0.12753479003906301</v>
+      </c>
+      <c r="C173">
+        <v>8.9962921142578103E-2</v>
+      </c>
+      <c r="D173">
+        <v>9.8860418701171895</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>6328</v>
+      </c>
+      <c r="B174">
+        <v>0.11256591796875</v>
+      </c>
+      <c r="C174">
+        <v>7.9035644531250004E-2</v>
+      </c>
+      <c r="D174">
+        <v>9.8483203125000003</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>6354</v>
+      </c>
+      <c r="B175">
+        <v>0.113014984130859</v>
+      </c>
+      <c r="C175">
+        <v>9.5501403808593802E-2</v>
+      </c>
+      <c r="D175">
+        <v>9.8649357604980494</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>6380</v>
+      </c>
+      <c r="B176">
+        <v>0.111967163085938</v>
+      </c>
+      <c r="C176">
+        <v>7.0353698730468706E-2</v>
+      </c>
+      <c r="D176">
+        <v>9.8493681335449192</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>6405</v>
+      </c>
+      <c r="B177">
+        <v>0.122445373535156</v>
+      </c>
+      <c r="C177">
+        <v>8.1280975341796902E-2</v>
+      </c>
+      <c r="D177">
+        <v>9.8625407409668</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>6431</v>
+      </c>
+      <c r="B178">
+        <v>0.102836151123047</v>
+      </c>
+      <c r="C178">
+        <v>8.0083465576171894E-2</v>
+      </c>
+      <c r="D178">
+        <v>9.8721208190917995</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>6457</v>
+      </c>
+      <c r="B179">
+        <v>0.106877746582031</v>
+      </c>
+      <c r="C179">
+        <v>7.0353698730468706E-2</v>
+      </c>
+      <c r="D179">
+        <v>9.8405364990234396</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>6483</v>
+      </c>
+      <c r="B180">
+        <v>0.120499420166016</v>
+      </c>
+      <c r="C180">
+        <v>7.5143737792968707E-2</v>
+      </c>
+      <c r="D180">
+        <v>9.8522122192382806</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>6508</v>
+      </c>
+      <c r="B181">
+        <v>0.130528564453125</v>
+      </c>
+      <c r="C181">
+        <v>6.1522064208984401E-2</v>
+      </c>
+      <c r="D181">
+        <v>9.8584991455078104</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>6534</v>
+      </c>
+      <c r="B182">
+        <v>0.13037887573242199</v>
+      </c>
+      <c r="C182">
+        <v>7.5892181396484404E-2</v>
+      </c>
+      <c r="D182">
+        <v>9.8620916748046898</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>6560</v>
+      </c>
+      <c r="B183">
+        <v>0.112715606689453</v>
+      </c>
+      <c r="C183">
+        <v>8.8915100097656297E-2</v>
+      </c>
+      <c r="D183">
+        <v>9.8336508178710904</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>6585</v>
+      </c>
+      <c r="B184">
+        <v>0.13831237792968801</v>
+      </c>
+      <c r="C184">
+        <v>7.6940002441406294E-2</v>
+      </c>
+      <c r="D184">
+        <v>9.8775096130371107</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>6611</v>
+      </c>
+      <c r="B185">
+        <v>0.13352233886718801</v>
+      </c>
+      <c r="C185">
+        <v>7.3796539306640596E-2</v>
+      </c>
+      <c r="D185">
+        <v>9.8872393798828107</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>6637</v>
+      </c>
+      <c r="B186">
+        <v>0.10253677368164101</v>
+      </c>
+      <c r="C186">
+        <v>7.9035644531250004E-2</v>
+      </c>
+      <c r="D186">
+        <v>9.8427818298339904</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>6663</v>
+      </c>
+      <c r="B187">
+        <v>0.113314361572266</v>
+      </c>
+      <c r="C187">
+        <v>7.4694671630859397E-2</v>
+      </c>
+      <c r="D187">
+        <v>9.8523619079589793</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>6688</v>
+      </c>
+      <c r="B188">
+        <v>0.116757202148438</v>
+      </c>
+      <c r="C188">
+        <v>6.6461791992187505E-2</v>
+      </c>
+      <c r="D188">
+        <v>9.8658338928222697</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>6714</v>
+      </c>
+      <c r="B189">
+        <v>0.11241622924804701</v>
+      </c>
+      <c r="C189">
+        <v>8.7717590332031206E-2</v>
+      </c>
+      <c r="D189">
+        <v>9.8665823364257808</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>6740</v>
+      </c>
+      <c r="B190">
+        <v>0.106428680419922</v>
+      </c>
+      <c r="C190">
+        <v>7.7389068603515604E-2</v>
+      </c>
+      <c r="D190">
+        <v>9.8704742431640593</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>6765</v>
+      </c>
+      <c r="B191">
+        <v>0.104333038330078</v>
+      </c>
+      <c r="C191">
+        <v>6.1971130371093801E-2</v>
+      </c>
+      <c r="D191">
+        <v>9.8580500793457002</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>6791</v>
+      </c>
+      <c r="B192">
+        <v>0.102836151123047</v>
+      </c>
+      <c r="C192">
+        <v>8.4424438476562502E-2</v>
+      </c>
+      <c r="D192">
+        <v>9.8429315185546908</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>6817</v>
+      </c>
+      <c r="B193">
+        <v>0.11825408935546899</v>
+      </c>
+      <c r="C193">
+        <v>7.8586578369140597E-2</v>
+      </c>
+      <c r="D193">
+        <v>9.8712226867675792</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>6843</v>
+      </c>
+      <c r="B194">
+        <v>0.125139770507812</v>
+      </c>
+      <c r="C194">
+        <v>6.9904632568359396E-2</v>
+      </c>
+      <c r="D194">
+        <v>9.8656842041015604</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>6868</v>
+      </c>
+      <c r="B195">
+        <v>0.114362182617188</v>
+      </c>
+      <c r="C195">
+        <v>7.0802764892578099E-2</v>
+      </c>
+      <c r="D195">
+        <v>9.8614929199218793</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>6894</v>
+      </c>
+      <c r="B196">
+        <v>0.13097763061523399</v>
+      </c>
+      <c r="C196">
+        <v>8.4125061035156296E-2</v>
+      </c>
+      <c r="D196">
+        <v>9.8667320251464794</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>6920</v>
+      </c>
+      <c r="B197">
+        <v>0.114362182617188</v>
+      </c>
+      <c r="C197">
+        <v>8.6969146728515606E-2</v>
+      </c>
+      <c r="D197">
+        <v>9.8496675109863308</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>6946</v>
+      </c>
+      <c r="B198">
+        <v>9.1310119628906297E-2</v>
+      </c>
+      <c r="C198">
+        <v>7.8137512207031301E-2</v>
+      </c>
+      <c r="D198">
+        <v>9.8302079772949202</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>6971</v>
+      </c>
+      <c r="B199">
+        <v>0.12364288330078101</v>
+      </c>
+      <c r="C199">
+        <v>9.0411987304687497E-2</v>
+      </c>
+      <c r="D199">
+        <v>9.8682289123535192</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>6997</v>
+      </c>
+      <c r="B200">
+        <v>0.10867401123046901</v>
+      </c>
+      <c r="C200">
+        <v>8.0532531738281302E-2</v>
+      </c>
+      <c r="D200">
+        <v>9.8550563049316402</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>7023</v>
+      </c>
+      <c r="B201">
+        <v>0.100291442871094</v>
+      </c>
+      <c r="C201">
+        <v>8.6071014404296903E-2</v>
+      </c>
+      <c r="D201">
+        <v>9.8623910522460907</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>7049</v>
+      </c>
+      <c r="B202">
+        <v>0.112865295410156</v>
+      </c>
+      <c r="C202">
+        <v>7.6191558837890597E-2</v>
+      </c>
+      <c r="D202">
+        <v>9.8733183288574207</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>7074</v>
+      </c>
+      <c r="B203">
+        <v>0.101339263916016</v>
+      </c>
+      <c r="C203">
+        <v>7.2000274658203106E-2</v>
+      </c>
+      <c r="D203">
+        <v>9.8650854492187499</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>7100</v>
+      </c>
+      <c r="B204">
+        <v>0.131426696777344</v>
+      </c>
+      <c r="C204">
+        <v>6.9754943847656306E-2</v>
+      </c>
+      <c r="D204">
+        <v>9.8595469665527293</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>7126</v>
+      </c>
+      <c r="B205">
+        <v>0.113913116455078</v>
+      </c>
+      <c r="C205">
+        <v>7.8436889648437494E-2</v>
+      </c>
+      <c r="D205">
+        <v>9.8511643981933599</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>7151</v>
+      </c>
+      <c r="B206">
+        <v>0.126636657714844</v>
+      </c>
+      <c r="C206">
+        <v>7.3048095703124996E-2</v>
+      </c>
+      <c r="D206">
+        <v>9.8579003906249998</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>7177</v>
+      </c>
+      <c r="B207">
+        <v>0.126486968994141</v>
+      </c>
+      <c r="C207">
+        <v>8.4574127197265606E-2</v>
+      </c>
+      <c r="D207">
+        <v>9.8570022583007795</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>7203</v>
+      </c>
+      <c r="B208">
+        <v>0.114362182617188</v>
+      </c>
+      <c r="C208">
+        <v>6.8707122802734402E-2</v>
+      </c>
+      <c r="D208">
+        <v>9.8484700012207007</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>7229</v>
+      </c>
+      <c r="B209">
+        <v>0.13427078247070301</v>
+      </c>
+      <c r="C209">
+        <v>6.6761169433593795E-2</v>
+      </c>
+      <c r="D209">
+        <v>9.8552059936523406</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>7254</v>
+      </c>
+      <c r="B210">
+        <v>0.119451599121094</v>
+      </c>
+      <c r="C210">
+        <v>7.9484710693359398E-2</v>
+      </c>
+      <c r="D210">
+        <v>9.8830480957031295</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>7280</v>
+      </c>
+      <c r="B211">
+        <v>0.123942260742188</v>
+      </c>
+      <c r="C211">
+        <v>5.7330780029296903E-2</v>
+      </c>
+      <c r="D211">
+        <v>9.8531103515624991</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>7306</v>
+      </c>
+      <c r="B212">
+        <v>0.120499420166016</v>
+      </c>
+      <c r="C212">
+        <v>7.4395294189453107E-2</v>
+      </c>
+      <c r="D212">
+        <v>9.8634388732910203</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>7331</v>
+      </c>
+      <c r="B213">
+        <v>0.111817474365234</v>
+      </c>
+      <c r="C213">
+        <v>7.5293426513671893E-2</v>
+      </c>
+      <c r="D213">
+        <v>9.8436799621582001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>7357</v>
+      </c>
+      <c r="B214">
+        <v>0.124091949462891</v>
+      </c>
+      <c r="C214">
+        <v>8.0382843017578101E-2</v>
+      </c>
+      <c r="D214">
+        <v>9.84861968994141</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>7383</v>
+      </c>
+      <c r="B215">
+        <v>0.120200042724609</v>
+      </c>
+      <c r="C215">
+        <v>9.8195800781249995E-2</v>
+      </c>
+      <c r="D215">
+        <v>9.8441290283203102</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>7409</v>
+      </c>
+      <c r="B216">
+        <v>0.11825408935546899</v>
+      </c>
+      <c r="C216">
+        <v>7.5443115234374997E-2</v>
+      </c>
+      <c r="D216">
+        <v>9.8670314025878891</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>7434</v>
+      </c>
+      <c r="B217">
+        <v>9.9842376708984396E-2</v>
+      </c>
+      <c r="C217">
+        <v>7.1850585937500003E-2</v>
+      </c>
+      <c r="D217">
+        <v>9.8676301574706997</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>7460</v>
+      </c>
+      <c r="B218">
+        <v>0.12603790283203101</v>
+      </c>
+      <c r="C218">
+        <v>7.9784088134765604E-2</v>
+      </c>
+      <c r="D218">
+        <v>9.8599960327148395</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>7486</v>
+      </c>
+      <c r="B219">
+        <v>0.117655334472656</v>
+      </c>
+      <c r="C219">
+        <v>8.0233154296874998E-2</v>
+      </c>
+      <c r="D219">
+        <v>9.8595469665527293</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>7512</v>
+      </c>
+      <c r="B220">
+        <v>0.11346405029296899</v>
+      </c>
+      <c r="C220">
+        <v>6.7060546875000002E-2</v>
+      </c>
+      <c r="D220">
+        <v>9.8635885620117207</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>7537</v>
+      </c>
+      <c r="B221">
+        <v>0.117655334472656</v>
+      </c>
+      <c r="C221">
+        <v>7.55928039550781E-2</v>
+      </c>
+      <c r="D221">
+        <v>9.8608941650390598</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>7563</v>
+      </c>
+      <c r="B222">
+        <v>0.10597961425781301</v>
+      </c>
+      <c r="C222">
+        <v>7.2748718261718706E-2</v>
+      </c>
+      <c r="D222">
+        <v>9.8481706237792999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>7589</v>
+      </c>
+      <c r="B223">
+        <v>0.108524322509766</v>
+      </c>
+      <c r="C223">
+        <v>7.9933776855468694E-2</v>
+      </c>
+      <c r="D223">
+        <v>9.8556550598144508</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>7614</v>
+      </c>
+      <c r="B224">
+        <v>0.12903167724609399</v>
+      </c>
+      <c r="C224">
+        <v>6.5863037109374994E-2</v>
+      </c>
+      <c r="D224">
+        <v>9.85161346435547</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>7640</v>
+      </c>
+      <c r="B225">
+        <v>0.13367202758789101</v>
+      </c>
+      <c r="C225">
+        <v>8.3077239990234406E-2</v>
+      </c>
+      <c r="D225">
+        <v>9.8758630371093794</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>7666</v>
+      </c>
+      <c r="B226">
+        <v>0.12124786376953101</v>
+      </c>
+      <c r="C226">
+        <v>6.9605255126953106E-2</v>
+      </c>
+      <c r="D226">
+        <v>9.8595469665527293</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>7692</v>
+      </c>
+      <c r="B227">
+        <v>0.123493194580078</v>
+      </c>
+      <c r="C227">
+        <v>5.5085449218749999E-2</v>
+      </c>
+      <c r="D227">
+        <v>9.8637382507324194</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>7717</v>
+      </c>
+      <c r="B228">
+        <v>0.131426696777344</v>
+      </c>
+      <c r="C228">
+        <v>6.8557434082031299E-2</v>
+      </c>
+      <c r="D228">
+        <v>9.86134323120117</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>7743</v>
+      </c>
+      <c r="B229">
+        <v>0.122894439697266</v>
+      </c>
+      <c r="C229">
+        <v>6.5863037109374994E-2</v>
+      </c>
+      <c r="D229">
+        <v>9.8734680175781193</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>7769</v>
+      </c>
+      <c r="B230">
+        <v>0.12199630737304699</v>
+      </c>
+      <c r="C230">
+        <v>7.1551208496093796E-2</v>
+      </c>
+      <c r="D230">
+        <v>9.8300582885742198</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>7795</v>
+      </c>
+      <c r="B231">
+        <v>0.106578369140625</v>
+      </c>
+      <c r="C231">
+        <v>8.1131286621093798E-2</v>
+      </c>
+      <c r="D231">
+        <v>9.8716717529296893</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>7820</v>
+      </c>
+      <c r="B232">
+        <v>0.127834167480469</v>
+      </c>
+      <c r="C232">
+        <v>7.40959167480469E-2</v>
+      </c>
+      <c r="D232">
+        <v>9.8758630371093794</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>7846</v>
+      </c>
+      <c r="B233">
+        <v>0.12499008178710901</v>
+      </c>
+      <c r="C233">
+        <v>7.8436889648437494E-2</v>
+      </c>
+      <c r="D233">
+        <v>9.8626904296875004</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>7872</v>
+      </c>
+      <c r="B234">
+        <v>0.132773895263672</v>
+      </c>
+      <c r="C234">
+        <v>6.9754943847656306E-2</v>
+      </c>
+      <c r="D234">
+        <v>9.8616426086425797</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>7898</v>
+      </c>
+      <c r="B235">
+        <v>0.119301910400391</v>
+      </c>
+      <c r="C235">
+        <v>8.1879730224609398E-2</v>
+      </c>
+      <c r="D235">
+        <v>9.8450271606445305</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>7923</v>
+      </c>
+      <c r="B236">
+        <v>0.12903167724609399</v>
+      </c>
+      <c r="C236">
+        <v>6.1971130371093801E-2</v>
+      </c>
+      <c r="D236">
+        <v>9.8598463439941408</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>7949</v>
+      </c>
+      <c r="B237">
+        <v>0.105380859375</v>
+      </c>
+      <c r="C237">
+        <v>7.7538757324218693E-2</v>
+      </c>
+      <c r="D237">
+        <v>9.8573016357421892</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>7975</v>
+      </c>
+      <c r="B238">
+        <v>0.12214599609375</v>
+      </c>
+      <c r="C238">
+        <v>8.0382843017578101E-2</v>
+      </c>
+      <c r="D238">
+        <v>9.8656842041015604</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>8000</v>
+      </c>
+      <c r="B239">
+        <v>0.111667785644531</v>
+      </c>
+      <c r="C239">
+        <v>8.6669769287109399E-2</v>
+      </c>
+      <c r="D239">
+        <v>9.8589482116699205</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="H49:H59">
+    <sortCondition ref="H49"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="G20:O20"/>
+    <mergeCell ref="G33:O33"/>
+    <mergeCell ref="G47:O47"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
